--- a/채널정보.xlsx
+++ b/채널정보.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="5" r:id="rId1"/>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K313"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:B308"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12643,22 +12643,25 @@
       <c r="B263" t="s">
         <v>270</v>
       </c>
-      <c r="C263" t="s">
-        <v>270</v>
+      <c r="C263" t="str">
+        <f>IF(ISNA(VLOOKUP($A263,KT!$A:$B,2,FALSE)),"",VLOOKUP($A263,KT!$A:$B,2,FALSE))</f>
+        <v>CJB 청주방송</v>
       </c>
       <c r="D263">
         <f>IF(ISNA(VLOOKUP($A263,KT!$A:$C,3,FALSE)),"",VLOOKUP($A263,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E263" t="s">
-        <v>270</v>
+      <c r="E263" t="str">
+        <f>IF(ISNA(VLOOKUP($A263,LG!$A:$B,2,FALSE)),"",VLOOKUP($A263,LG!$A:$B,2,FALSE))</f>
+        <v>CJB 청주방송</v>
       </c>
       <c r="F263">
         <f>IF(ISNA(VLOOKUP($A263,LG!$A:$C,3,FALSE)),"",VLOOKUP($A263,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G263" t="s">
-        <v>270</v>
+      <c r="G263" t="str">
+        <f>IF(ISNA(VLOOKUP($A263,SK!$A:$B,2,FALSE)),"",VLOOKUP($A263,SK!$A:$B,2,FALSE))</f>
+        <v>CJB 청주방송</v>
       </c>
       <c r="H263">
         <f>IF(ISNA(VLOOKUP($A263,SK!$A:$C,3,FALSE)),"",VLOOKUP($A263,SK!$A:$C,3,FALSE))</f>
@@ -12681,22 +12684,25 @@
       <c r="B264" t="s">
         <v>271</v>
       </c>
-      <c r="C264" t="s">
-        <v>271</v>
+      <c r="C264" t="str">
+        <f>IF(ISNA(VLOOKUP($A264,KT!$A:$B,2,FALSE)),"",VLOOKUP($A264,KT!$A:$B,2,FALSE))</f>
+        <v>G1 강원민방</v>
       </c>
       <c r="D264">
         <f>IF(ISNA(VLOOKUP($A264,KT!$A:$C,3,FALSE)),"",VLOOKUP($A264,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E264" t="s">
-        <v>271</v>
+      <c r="E264" t="str">
+        <f>IF(ISNA(VLOOKUP($A264,LG!$A:$B,2,FALSE)),"",VLOOKUP($A264,LG!$A:$B,2,FALSE))</f>
+        <v>G1 강원민방</v>
       </c>
       <c r="F264">
         <f>IF(ISNA(VLOOKUP($A264,LG!$A:$C,3,FALSE)),"",VLOOKUP($A264,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G264" t="s">
-        <v>271</v>
+      <c r="G264" t="str">
+        <f>IF(ISNA(VLOOKUP($A264,SK!$A:$B,2,FALSE)),"",VLOOKUP($A264,SK!$A:$B,2,FALSE))</f>
+        <v>G1 강원민방</v>
       </c>
       <c r="H264">
         <f>IF(ISNA(VLOOKUP($A264,SK!$A:$C,3,FALSE)),"",VLOOKUP($A264,SK!$A:$C,3,FALSE))</f>
@@ -12719,22 +12725,25 @@
       <c r="B265" t="s">
         <v>272</v>
       </c>
-      <c r="C265" t="s">
-        <v>272</v>
+      <c r="C265" t="str">
+        <f>IF(ISNA(VLOOKUP($A265,KT!$A:$B,2,FALSE)),"",VLOOKUP($A265,KT!$A:$B,2,FALSE))</f>
+        <v>JIBS 제주방송</v>
       </c>
       <c r="D265">
         <f>IF(ISNA(VLOOKUP($A265,KT!$A:$C,3,FALSE)),"",VLOOKUP($A265,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E265" t="s">
-        <v>272</v>
+      <c r="E265" t="str">
+        <f>IF(ISNA(VLOOKUP($A265,LG!$A:$B,2,FALSE)),"",VLOOKUP($A265,LG!$A:$B,2,FALSE))</f>
+        <v>JIBS 제주방송</v>
       </c>
       <c r="F265">
         <f>IF(ISNA(VLOOKUP($A265,LG!$A:$C,3,FALSE)),"",VLOOKUP($A265,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G265" t="s">
-        <v>272</v>
+      <c r="G265" t="str">
+        <f>IF(ISNA(VLOOKUP($A265,SK!$A:$B,2,FALSE)),"",VLOOKUP($A265,SK!$A:$B,2,FALSE))</f>
+        <v>JIBS 제주방송</v>
       </c>
       <c r="H265">
         <f>IF(ISNA(VLOOKUP($A265,SK!$A:$C,3,FALSE)),"",VLOOKUP($A265,SK!$A:$C,3,FALSE))</f>
@@ -12757,22 +12766,25 @@
       <c r="B266" t="s">
         <v>273</v>
       </c>
-      <c r="C266" t="s">
-        <v>273</v>
+      <c r="C266" t="str">
+        <f>IF(ISNA(VLOOKUP($A266,KT!$A:$B,2,FALSE)),"",VLOOKUP($A266,KT!$A:$B,2,FALSE))</f>
+        <v>JTV 전주방송</v>
       </c>
       <c r="D266">
         <f>IF(ISNA(VLOOKUP($A266,KT!$A:$C,3,FALSE)),"",VLOOKUP($A266,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E266" t="s">
-        <v>273</v>
+      <c r="E266" t="str">
+        <f>IF(ISNA(VLOOKUP($A266,LG!$A:$B,2,FALSE)),"",VLOOKUP($A266,LG!$A:$B,2,FALSE))</f>
+        <v>JTV 전주방송</v>
       </c>
       <c r="F266">
         <f>IF(ISNA(VLOOKUP($A266,LG!$A:$C,3,FALSE)),"",VLOOKUP($A266,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G266" t="s">
-        <v>273</v>
+      <c r="G266" t="str">
+        <f>IF(ISNA(VLOOKUP($A266,SK!$A:$B,2,FALSE)),"",VLOOKUP($A266,SK!$A:$B,2,FALSE))</f>
+        <v>JTV 전주방송</v>
       </c>
       <c r="H266">
         <f>IF(ISNA(VLOOKUP($A266,SK!$A:$C,3,FALSE)),"",VLOOKUP($A266,SK!$A:$C,3,FALSE))</f>
@@ -12795,22 +12807,25 @@
       <c r="B267" t="s">
         <v>274</v>
       </c>
-      <c r="C267" t="s">
-        <v>274</v>
+      <c r="C267" t="str">
+        <f>IF(ISNA(VLOOKUP($A267,KT!$A:$B,2,FALSE)),"",VLOOKUP($A267,KT!$A:$B,2,FALSE))</f>
+        <v>KBC 광주방송</v>
       </c>
       <c r="D267">
         <f>IF(ISNA(VLOOKUP($A267,KT!$A:$C,3,FALSE)),"",VLOOKUP($A267,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E267" t="s">
-        <v>274</v>
+      <c r="E267" t="str">
+        <f>IF(ISNA(VLOOKUP($A267,LG!$A:$B,2,FALSE)),"",VLOOKUP($A267,LG!$A:$B,2,FALSE))</f>
+        <v>KBC 광주방송</v>
       </c>
       <c r="F267">
         <f>IF(ISNA(VLOOKUP($A267,LG!$A:$C,3,FALSE)),"",VLOOKUP($A267,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G267" t="s">
-        <v>274</v>
+      <c r="G267" t="str">
+        <f>IF(ISNA(VLOOKUP($A267,SK!$A:$B,2,FALSE)),"",VLOOKUP($A267,SK!$A:$B,2,FALSE))</f>
+        <v>KBC 광주방송</v>
       </c>
       <c r="H267">
         <f>IF(ISNA(VLOOKUP($A267,SK!$A:$C,3,FALSE)),"",VLOOKUP($A267,SK!$A:$C,3,FALSE))</f>
@@ -12833,22 +12848,25 @@
       <c r="B268" t="s">
         <v>275</v>
       </c>
-      <c r="C268" t="s">
-        <v>275</v>
+      <c r="C268" t="str">
+        <f>IF(ISNA(VLOOKUP($A268,KT!$A:$B,2,FALSE)),"",VLOOKUP($A268,KT!$A:$B,2,FALSE))</f>
+        <v>KNN 부산경남방송</v>
       </c>
       <c r="D268">
         <f>IF(ISNA(VLOOKUP($A268,KT!$A:$C,3,FALSE)),"",VLOOKUP($A268,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E268" t="s">
-        <v>275</v>
+      <c r="E268" t="str">
+        <f>IF(ISNA(VLOOKUP($A268,LG!$A:$B,2,FALSE)),"",VLOOKUP($A268,LG!$A:$B,2,FALSE))</f>
+        <v>KNN 부산경남방송</v>
       </c>
       <c r="F268">
         <f>IF(ISNA(VLOOKUP($A268,LG!$A:$C,3,FALSE)),"",VLOOKUP($A268,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G268" t="s">
-        <v>275</v>
+      <c r="G268" t="str">
+        <f>IF(ISNA(VLOOKUP($A268,SK!$A:$B,2,FALSE)),"",VLOOKUP($A268,SK!$A:$B,2,FALSE))</f>
+        <v>KNN 부산경남방송</v>
       </c>
       <c r="H268">
         <f>IF(ISNA(VLOOKUP($A268,SK!$A:$C,3,FALSE)),"",VLOOKUP($A268,SK!$A:$C,3,FALSE))</f>
@@ -12871,22 +12889,25 @@
       <c r="B269" t="s">
         <v>276</v>
       </c>
-      <c r="C269" t="s">
-        <v>276</v>
+      <c r="C269" t="str">
+        <f>IF(ISNA(VLOOKUP($A269,KT!$A:$B,2,FALSE)),"",VLOOKUP($A269,KT!$A:$B,2,FALSE))</f>
+        <v>TBC 대구방송</v>
       </c>
       <c r="D269">
         <f>IF(ISNA(VLOOKUP($A269,KT!$A:$C,3,FALSE)),"",VLOOKUP($A269,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E269" t="s">
-        <v>276</v>
+      <c r="E269" t="str">
+        <f>IF(ISNA(VLOOKUP($A269,LG!$A:$B,2,FALSE)),"",VLOOKUP($A269,LG!$A:$B,2,FALSE))</f>
+        <v>TBC 대구방송</v>
       </c>
       <c r="F269">
         <f>IF(ISNA(VLOOKUP($A269,LG!$A:$C,3,FALSE)),"",VLOOKUP($A269,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G269" t="s">
-        <v>276</v>
+      <c r="G269" t="str">
+        <f>IF(ISNA(VLOOKUP($A269,SK!$A:$B,2,FALSE)),"",VLOOKUP($A269,SK!$A:$B,2,FALSE))</f>
+        <v>TBC 대구방송</v>
       </c>
       <c r="H269">
         <f>IF(ISNA(VLOOKUP($A269,SK!$A:$C,3,FALSE)),"",VLOOKUP($A269,SK!$A:$C,3,FALSE))</f>
@@ -12909,22 +12930,25 @@
       <c r="B270" t="s">
         <v>277</v>
       </c>
-      <c r="C270" t="s">
-        <v>277</v>
+      <c r="C270" t="str">
+        <f>IF(ISNA(VLOOKUP($A270,KT!$A:$B,2,FALSE)),"",VLOOKUP($A270,KT!$A:$B,2,FALSE))</f>
+        <v>TJB 대전방송</v>
       </c>
       <c r="D270">
         <f>IF(ISNA(VLOOKUP($A270,KT!$A:$C,3,FALSE)),"",VLOOKUP($A270,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E270" t="s">
-        <v>277</v>
+      <c r="E270" t="str">
+        <f>IF(ISNA(VLOOKUP($A270,LG!$A:$B,2,FALSE)),"",VLOOKUP($A270,LG!$A:$B,2,FALSE))</f>
+        <v>TJB 대전방송</v>
       </c>
       <c r="F270">
         <f>IF(ISNA(VLOOKUP($A270,LG!$A:$C,3,FALSE)),"",VLOOKUP($A270,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G270" t="s">
-        <v>277</v>
+      <c r="G270" t="str">
+        <f>IF(ISNA(VLOOKUP($A270,SK!$A:$B,2,FALSE)),"",VLOOKUP($A270,SK!$A:$B,2,FALSE))</f>
+        <v>TJB 대전방송</v>
       </c>
       <c r="H270">
         <f>IF(ISNA(VLOOKUP($A270,SK!$A:$C,3,FALSE)),"",VLOOKUP($A270,SK!$A:$C,3,FALSE))</f>
@@ -12947,22 +12971,25 @@
       <c r="B271" t="s">
         <v>278</v>
       </c>
-      <c r="C271" t="s">
-        <v>278</v>
+      <c r="C271" t="str">
+        <f>IF(ISNA(VLOOKUP($A271,KT!$A:$B,2,FALSE)),"",VLOOKUP($A271,KT!$A:$B,2,FALSE))</f>
+        <v>UBC 울산방송</v>
       </c>
       <c r="D271">
         <f>IF(ISNA(VLOOKUP($A271,KT!$A:$C,3,FALSE)),"",VLOOKUP($A271,KT!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="E271" t="s">
-        <v>278</v>
+      <c r="E271" t="str">
+        <f>IF(ISNA(VLOOKUP($A271,LG!$A:$B,2,FALSE)),"",VLOOKUP($A271,LG!$A:$B,2,FALSE))</f>
+        <v>UBC 울산방송</v>
       </c>
       <c r="F271">
         <f>IF(ISNA(VLOOKUP($A271,LG!$A:$C,3,FALSE)),"",VLOOKUP($A271,LG!$A:$C,3,FALSE))</f>
         <v>5</v>
       </c>
-      <c r="G271" t="s">
-        <v>278</v>
+      <c r="G271" t="str">
+        <f>IF(ISNA(VLOOKUP($A271,SK!$A:$B,2,FALSE)),"",VLOOKUP($A271,SK!$A:$B,2,FALSE))</f>
+        <v>UBC 울산방송</v>
       </c>
       <c r="H271">
         <f>IF(ISNA(VLOOKUP($A271,SK!$A:$C,3,FALSE)),"",VLOOKUP($A271,SK!$A:$C,3,FALSE))</f>
@@ -12985,22 +13012,25 @@
       <c r="B272" t="s">
         <v>279</v>
       </c>
-      <c r="C272" t="s">
-        <v>279</v>
+      <c r="C272" t="str">
+        <f>IF(ISNA(VLOOKUP($A272,KT!$A:$B,2,FALSE)),"",VLOOKUP($A272,KT!$A:$B,2,FALSE))</f>
+        <v>강릉 KBS1</v>
       </c>
       <c r="D272">
         <f>IF(ISNA(VLOOKUP($A272,KT!$A:$C,3,FALSE)),"",VLOOKUP($A272,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E272" t="s">
-        <v>279</v>
+      <c r="E272" t="str">
+        <f>IF(ISNA(VLOOKUP($A272,LG!$A:$B,2,FALSE)),"",VLOOKUP($A272,LG!$A:$B,2,FALSE))</f>
+        <v>강릉 KBS1</v>
       </c>
       <c r="F272">
         <f>IF(ISNA(VLOOKUP($A272,LG!$A:$C,3,FALSE)),"",VLOOKUP($A272,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G272" t="s">
-        <v>279</v>
+      <c r="G272" t="str">
+        <f>IF(ISNA(VLOOKUP($A272,SK!$A:$B,2,FALSE)),"",VLOOKUP($A272,SK!$A:$B,2,FALSE))</f>
+        <v>강릉 KBS1</v>
       </c>
       <c r="H272">
         <f>IF(ISNA(VLOOKUP($A272,SK!$A:$C,3,FALSE)),"",VLOOKUP($A272,SK!$A:$C,3,FALSE))</f>
@@ -13023,22 +13053,25 @@
       <c r="B273" t="s">
         <v>280</v>
       </c>
-      <c r="C273" t="s">
-        <v>280</v>
+      <c r="C273" t="str">
+        <f>IF(ISNA(VLOOKUP($A273,KT!$A:$B,2,FALSE)),"",VLOOKUP($A273,KT!$A:$B,2,FALSE))</f>
+        <v>강릉 MBC</v>
       </c>
       <c r="D273">
         <f>IF(ISNA(VLOOKUP($A273,KT!$A:$C,3,FALSE)),"",VLOOKUP($A273,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E273" t="s">
-        <v>280</v>
+      <c r="E273" t="str">
+        <f>IF(ISNA(VLOOKUP($A273,LG!$A:$B,2,FALSE)),"",VLOOKUP($A273,LG!$A:$B,2,FALSE))</f>
+        <v>강릉 MBC</v>
       </c>
       <c r="F273">
         <f>IF(ISNA(VLOOKUP($A273,LG!$A:$C,3,FALSE)),"",VLOOKUP($A273,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>280</v>
+      <c r="G273" t="str">
+        <f>IF(ISNA(VLOOKUP($A273,SK!$A:$B,2,FALSE)),"",VLOOKUP($A273,SK!$A:$B,2,FALSE))</f>
+        <v>강릉 MBC</v>
       </c>
       <c r="H273">
         <f>IF(ISNA(VLOOKUP($A273,SK!$A:$C,3,FALSE)),"",VLOOKUP($A273,SK!$A:$C,3,FALSE))</f>
@@ -13061,22 +13094,25 @@
       <c r="B274" t="s">
         <v>281</v>
       </c>
-      <c r="C274" t="s">
-        <v>281</v>
+      <c r="C274" t="str">
+        <f>IF(ISNA(VLOOKUP($A274,KT!$A:$B,2,FALSE)),"",VLOOKUP($A274,KT!$A:$B,2,FALSE))</f>
+        <v>경인 KBS1</v>
       </c>
       <c r="D274">
         <f>IF(ISNA(VLOOKUP($A274,KT!$A:$C,3,FALSE)),"",VLOOKUP($A274,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E274" t="s">
-        <v>281</v>
+      <c r="E274" t="str">
+        <f>IF(ISNA(VLOOKUP($A274,LG!$A:$B,2,FALSE)),"",VLOOKUP($A274,LG!$A:$B,2,FALSE))</f>
+        <v>경인 KBS1</v>
       </c>
       <c r="F274">
         <f>IF(ISNA(VLOOKUP($A274,LG!$A:$C,3,FALSE)),"",VLOOKUP($A274,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G274" t="s">
-        <v>281</v>
+      <c r="G274" t="str">
+        <f>IF(ISNA(VLOOKUP($A274,SK!$A:$B,2,FALSE)),"",VLOOKUP($A274,SK!$A:$B,2,FALSE))</f>
+        <v>경인 KBS1</v>
       </c>
       <c r="H274">
         <f>IF(ISNA(VLOOKUP($A274,SK!$A:$C,3,FALSE)),"",VLOOKUP($A274,SK!$A:$C,3,FALSE))</f>
@@ -13099,22 +13135,25 @@
       <c r="B275" t="s">
         <v>282</v>
       </c>
-      <c r="C275" t="s">
-        <v>282</v>
+      <c r="C275" t="str">
+        <f>IF(ISNA(VLOOKUP($A275,KT!$A:$B,2,FALSE)),"",VLOOKUP($A275,KT!$A:$B,2,FALSE))</f>
+        <v>광주 KBS1</v>
       </c>
       <c r="D275">
         <f>IF(ISNA(VLOOKUP($A275,KT!$A:$C,3,FALSE)),"",VLOOKUP($A275,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E275" t="s">
-        <v>282</v>
+      <c r="E275" t="str">
+        <f>IF(ISNA(VLOOKUP($A275,LG!$A:$B,2,FALSE)),"",VLOOKUP($A275,LG!$A:$B,2,FALSE))</f>
+        <v>광주 KBS1</v>
       </c>
       <c r="F275">
         <f>IF(ISNA(VLOOKUP($A275,LG!$A:$C,3,FALSE)),"",VLOOKUP($A275,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G275" t="s">
-        <v>282</v>
+      <c r="G275" t="str">
+        <f>IF(ISNA(VLOOKUP($A275,SK!$A:$B,2,FALSE)),"",VLOOKUP($A275,SK!$A:$B,2,FALSE))</f>
+        <v>광주 KBS1</v>
       </c>
       <c r="H275">
         <f>IF(ISNA(VLOOKUP($A275,SK!$A:$C,3,FALSE)),"",VLOOKUP($A275,SK!$A:$C,3,FALSE))</f>
@@ -13137,22 +13176,25 @@
       <c r="B276" t="s">
         <v>283</v>
       </c>
-      <c r="C276" t="s">
-        <v>283</v>
+      <c r="C276" t="str">
+        <f>IF(ISNA(VLOOKUP($A276,KT!$A:$B,2,FALSE)),"",VLOOKUP($A276,KT!$A:$B,2,FALSE))</f>
+        <v>광주 MBC</v>
       </c>
       <c r="D276">
         <f>IF(ISNA(VLOOKUP($A276,KT!$A:$C,3,FALSE)),"",VLOOKUP($A276,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E276" t="s">
-        <v>283</v>
+      <c r="E276" t="str">
+        <f>IF(ISNA(VLOOKUP($A276,LG!$A:$B,2,FALSE)),"",VLOOKUP($A276,LG!$A:$B,2,FALSE))</f>
+        <v>광주 MBC</v>
       </c>
       <c r="F276">
         <f>IF(ISNA(VLOOKUP($A276,LG!$A:$C,3,FALSE)),"",VLOOKUP($A276,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>283</v>
+      <c r="G276" t="str">
+        <f>IF(ISNA(VLOOKUP($A276,SK!$A:$B,2,FALSE)),"",VLOOKUP($A276,SK!$A:$B,2,FALSE))</f>
+        <v>광주 MBC</v>
       </c>
       <c r="H276">
         <f>IF(ISNA(VLOOKUP($A276,SK!$A:$C,3,FALSE)),"",VLOOKUP($A276,SK!$A:$C,3,FALSE))</f>
@@ -13175,22 +13217,25 @@
       <c r="B277" t="s">
         <v>284</v>
       </c>
-      <c r="C277" t="s">
-        <v>284</v>
+      <c r="C277" t="str">
+        <f>IF(ISNA(VLOOKUP($A277,KT!$A:$B,2,FALSE)),"",VLOOKUP($A277,KT!$A:$B,2,FALSE))</f>
+        <v>대구 KBS1</v>
       </c>
       <c r="D277">
         <f>IF(ISNA(VLOOKUP($A277,KT!$A:$C,3,FALSE)),"",VLOOKUP($A277,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E277" t="s">
-        <v>284</v>
+      <c r="E277" t="str">
+        <f>IF(ISNA(VLOOKUP($A277,LG!$A:$B,2,FALSE)),"",VLOOKUP($A277,LG!$A:$B,2,FALSE))</f>
+        <v>대구 KBS1</v>
       </c>
       <c r="F277">
         <f>IF(ISNA(VLOOKUP($A277,LG!$A:$C,3,FALSE)),"",VLOOKUP($A277,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G277" t="s">
-        <v>284</v>
+      <c r="G277" t="str">
+        <f>IF(ISNA(VLOOKUP($A277,SK!$A:$B,2,FALSE)),"",VLOOKUP($A277,SK!$A:$B,2,FALSE))</f>
+        <v>대구 KBS1</v>
       </c>
       <c r="H277">
         <f>IF(ISNA(VLOOKUP($A277,SK!$A:$C,3,FALSE)),"",VLOOKUP($A277,SK!$A:$C,3,FALSE))</f>
@@ -13213,22 +13258,25 @@
       <c r="B278" t="s">
         <v>285</v>
       </c>
-      <c r="C278" t="s">
-        <v>285</v>
+      <c r="C278" t="str">
+        <f>IF(ISNA(VLOOKUP($A278,KT!$A:$B,2,FALSE)),"",VLOOKUP($A278,KT!$A:$B,2,FALSE))</f>
+        <v>대구 MBC</v>
       </c>
       <c r="D278">
         <f>IF(ISNA(VLOOKUP($A278,KT!$A:$C,3,FALSE)),"",VLOOKUP($A278,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E278" t="s">
-        <v>285</v>
+      <c r="E278" t="str">
+        <f>IF(ISNA(VLOOKUP($A278,LG!$A:$B,2,FALSE)),"",VLOOKUP($A278,LG!$A:$B,2,FALSE))</f>
+        <v>대구 MBC</v>
       </c>
       <c r="F278">
         <f>IF(ISNA(VLOOKUP($A278,LG!$A:$C,3,FALSE)),"",VLOOKUP($A278,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>285</v>
+      <c r="G278" t="str">
+        <f>IF(ISNA(VLOOKUP($A278,SK!$A:$B,2,FALSE)),"",VLOOKUP($A278,SK!$A:$B,2,FALSE))</f>
+        <v>대구 MBC</v>
       </c>
       <c r="H278">
         <f>IF(ISNA(VLOOKUP($A278,SK!$A:$C,3,FALSE)),"",VLOOKUP($A278,SK!$A:$C,3,FALSE))</f>
@@ -13251,22 +13299,25 @@
       <c r="B279" t="s">
         <v>286</v>
       </c>
-      <c r="C279" t="s">
-        <v>286</v>
+      <c r="C279" t="str">
+        <f>IF(ISNA(VLOOKUP($A279,KT!$A:$B,2,FALSE)),"",VLOOKUP($A279,KT!$A:$B,2,FALSE))</f>
+        <v>대전 KBS1</v>
       </c>
       <c r="D279">
         <f>IF(ISNA(VLOOKUP($A279,KT!$A:$C,3,FALSE)),"",VLOOKUP($A279,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E279" t="s">
-        <v>286</v>
+      <c r="E279" t="str">
+        <f>IF(ISNA(VLOOKUP($A279,LG!$A:$B,2,FALSE)),"",VLOOKUP($A279,LG!$A:$B,2,FALSE))</f>
+        <v>대전 KBS1</v>
       </c>
       <c r="F279">
         <f>IF(ISNA(VLOOKUP($A279,LG!$A:$C,3,FALSE)),"",VLOOKUP($A279,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G279" t="s">
-        <v>286</v>
+      <c r="G279" t="str">
+        <f>IF(ISNA(VLOOKUP($A279,SK!$A:$B,2,FALSE)),"",VLOOKUP($A279,SK!$A:$B,2,FALSE))</f>
+        <v>대전 KBS1</v>
       </c>
       <c r="H279">
         <f>IF(ISNA(VLOOKUP($A279,SK!$A:$C,3,FALSE)),"",VLOOKUP($A279,SK!$A:$C,3,FALSE))</f>
@@ -13289,22 +13340,25 @@
       <c r="B280" t="s">
         <v>287</v>
       </c>
-      <c r="C280" t="s">
-        <v>287</v>
+      <c r="C280" t="str">
+        <f>IF(ISNA(VLOOKUP($A280,KT!$A:$B,2,FALSE)),"",VLOOKUP($A280,KT!$A:$B,2,FALSE))</f>
+        <v>대전 MBC</v>
       </c>
       <c r="D280">
         <f>IF(ISNA(VLOOKUP($A280,KT!$A:$C,3,FALSE)),"",VLOOKUP($A280,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E280" t="s">
-        <v>287</v>
+      <c r="E280" t="str">
+        <f>IF(ISNA(VLOOKUP($A280,LG!$A:$B,2,FALSE)),"",VLOOKUP($A280,LG!$A:$B,2,FALSE))</f>
+        <v>대전 MBC</v>
       </c>
       <c r="F280">
         <f>IF(ISNA(VLOOKUP($A280,LG!$A:$C,3,FALSE)),"",VLOOKUP($A280,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>287</v>
+      <c r="G280" t="str">
+        <f>IF(ISNA(VLOOKUP($A280,SK!$A:$B,2,FALSE)),"",VLOOKUP($A280,SK!$A:$B,2,FALSE))</f>
+        <v>대전 MBC</v>
       </c>
       <c r="H280">
         <f>IF(ISNA(VLOOKUP($A280,SK!$A:$C,3,FALSE)),"",VLOOKUP($A280,SK!$A:$C,3,FALSE))</f>
@@ -13327,22 +13381,25 @@
       <c r="B281" t="s">
         <v>288</v>
       </c>
-      <c r="C281" t="s">
-        <v>288</v>
+      <c r="C281" t="str">
+        <f>IF(ISNA(VLOOKUP($A281,KT!$A:$B,2,FALSE)),"",VLOOKUP($A281,KT!$A:$B,2,FALSE))</f>
+        <v>목포 KBS1</v>
       </c>
       <c r="D281">
         <f>IF(ISNA(VLOOKUP($A281,KT!$A:$C,3,FALSE)),"",VLOOKUP($A281,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E281" t="s">
-        <v>288</v>
+      <c r="E281" t="str">
+        <f>IF(ISNA(VLOOKUP($A281,LG!$A:$B,2,FALSE)),"",VLOOKUP($A281,LG!$A:$B,2,FALSE))</f>
+        <v>목포 KBS1</v>
       </c>
       <c r="F281">
         <f>IF(ISNA(VLOOKUP($A281,LG!$A:$C,3,FALSE)),"",VLOOKUP($A281,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G281" t="s">
-        <v>288</v>
+      <c r="G281" t="str">
+        <f>IF(ISNA(VLOOKUP($A281,SK!$A:$B,2,FALSE)),"",VLOOKUP($A281,SK!$A:$B,2,FALSE))</f>
+        <v>목포 KBS1</v>
       </c>
       <c r="H281">
         <f>IF(ISNA(VLOOKUP($A281,SK!$A:$C,3,FALSE)),"",VLOOKUP($A281,SK!$A:$C,3,FALSE))</f>
@@ -13365,22 +13422,25 @@
       <c r="B282" t="s">
         <v>289</v>
       </c>
-      <c r="C282" t="s">
-        <v>289</v>
+      <c r="C282" t="str">
+        <f>IF(ISNA(VLOOKUP($A282,KT!$A:$B,2,FALSE)),"",VLOOKUP($A282,KT!$A:$B,2,FALSE))</f>
+        <v>목포 MBC</v>
       </c>
       <c r="D282">
         <f>IF(ISNA(VLOOKUP($A282,KT!$A:$C,3,FALSE)),"",VLOOKUP($A282,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E282" t="s">
-        <v>289</v>
+      <c r="E282" t="str">
+        <f>IF(ISNA(VLOOKUP($A282,LG!$A:$B,2,FALSE)),"",VLOOKUP($A282,LG!$A:$B,2,FALSE))</f>
+        <v>목포 MBC</v>
       </c>
       <c r="F282">
         <f>IF(ISNA(VLOOKUP($A282,LG!$A:$C,3,FALSE)),"",VLOOKUP($A282,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>289</v>
+      <c r="G282" t="str">
+        <f>IF(ISNA(VLOOKUP($A282,SK!$A:$B,2,FALSE)),"",VLOOKUP($A282,SK!$A:$B,2,FALSE))</f>
+        <v>목포 MBC</v>
       </c>
       <c r="H282">
         <f>IF(ISNA(VLOOKUP($A282,SK!$A:$C,3,FALSE)),"",VLOOKUP($A282,SK!$A:$C,3,FALSE))</f>
@@ -13403,22 +13463,25 @@
       <c r="B283" t="s">
         <v>290</v>
       </c>
-      <c r="C283" t="s">
-        <v>290</v>
+      <c r="C283" t="str">
+        <f>IF(ISNA(VLOOKUP($A283,KT!$A:$B,2,FALSE)),"",VLOOKUP($A283,KT!$A:$B,2,FALSE))</f>
+        <v>부산 KBS1</v>
       </c>
       <c r="D283">
         <f>IF(ISNA(VLOOKUP($A283,KT!$A:$C,3,FALSE)),"",VLOOKUP($A283,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E283" t="s">
-        <v>290</v>
+      <c r="E283" t="str">
+        <f>IF(ISNA(VLOOKUP($A283,LG!$A:$B,2,FALSE)),"",VLOOKUP($A283,LG!$A:$B,2,FALSE))</f>
+        <v>부산 KBS1</v>
       </c>
       <c r="F283">
         <f>IF(ISNA(VLOOKUP($A283,LG!$A:$C,3,FALSE)),"",VLOOKUP($A283,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G283" t="s">
-        <v>290</v>
+      <c r="G283" t="str">
+        <f>IF(ISNA(VLOOKUP($A283,SK!$A:$B,2,FALSE)),"",VLOOKUP($A283,SK!$A:$B,2,FALSE))</f>
+        <v>부산 KBS1</v>
       </c>
       <c r="H283">
         <f>IF(ISNA(VLOOKUP($A283,SK!$A:$C,3,FALSE)),"",VLOOKUP($A283,SK!$A:$C,3,FALSE))</f>
@@ -13441,22 +13504,25 @@
       <c r="B284" t="s">
         <v>291</v>
       </c>
-      <c r="C284" t="s">
-        <v>291</v>
+      <c r="C284" t="str">
+        <f>IF(ISNA(VLOOKUP($A284,KT!$A:$B,2,FALSE)),"",VLOOKUP($A284,KT!$A:$B,2,FALSE))</f>
+        <v>부산 MBC</v>
       </c>
       <c r="D284">
         <f>IF(ISNA(VLOOKUP($A284,KT!$A:$C,3,FALSE)),"",VLOOKUP($A284,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E284" t="s">
-        <v>291</v>
+      <c r="E284" t="str">
+        <f>IF(ISNA(VLOOKUP($A284,LG!$A:$B,2,FALSE)),"",VLOOKUP($A284,LG!$A:$B,2,FALSE))</f>
+        <v>부산 MBC</v>
       </c>
       <c r="F284">
         <f>IF(ISNA(VLOOKUP($A284,LG!$A:$C,3,FALSE)),"",VLOOKUP($A284,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>291</v>
+      <c r="G284" t="str">
+        <f>IF(ISNA(VLOOKUP($A284,SK!$A:$B,2,FALSE)),"",VLOOKUP($A284,SK!$A:$B,2,FALSE))</f>
+        <v>부산 MBC</v>
       </c>
       <c r="H284">
         <f>IF(ISNA(VLOOKUP($A284,SK!$A:$C,3,FALSE)),"",VLOOKUP($A284,SK!$A:$C,3,FALSE))</f>
@@ -13479,22 +13545,25 @@
       <c r="B285" t="s">
         <v>292</v>
       </c>
-      <c r="C285" t="s">
-        <v>292</v>
+      <c r="C285" t="str">
+        <f>IF(ISNA(VLOOKUP($A285,KT!$A:$B,2,FALSE)),"",VLOOKUP($A285,KT!$A:$B,2,FALSE))</f>
+        <v>삼척 MBC</v>
       </c>
       <c r="D285">
         <f>IF(ISNA(VLOOKUP($A285,KT!$A:$C,3,FALSE)),"",VLOOKUP($A285,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E285" t="s">
-        <v>292</v>
+      <c r="E285" t="str">
+        <f>IF(ISNA(VLOOKUP($A285,LG!$A:$B,2,FALSE)),"",VLOOKUP($A285,LG!$A:$B,2,FALSE))</f>
+        <v>삼척 MBC</v>
       </c>
       <c r="F285">
         <f>IF(ISNA(VLOOKUP($A285,LG!$A:$C,3,FALSE)),"",VLOOKUP($A285,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>292</v>
+      <c r="G285" t="str">
+        <f>IF(ISNA(VLOOKUP($A285,SK!$A:$B,2,FALSE)),"",VLOOKUP($A285,SK!$A:$B,2,FALSE))</f>
+        <v>삼척 MBC</v>
       </c>
       <c r="H285">
         <f>IF(ISNA(VLOOKUP($A285,SK!$A:$C,3,FALSE)),"",VLOOKUP($A285,SK!$A:$C,3,FALSE))</f>
@@ -13517,22 +13586,25 @@
       <c r="B286" t="s">
         <v>293</v>
       </c>
-      <c r="C286" t="s">
-        <v>293</v>
+      <c r="C286" t="str">
+        <f>IF(ISNA(VLOOKUP($A286,KT!$A:$B,2,FALSE)),"",VLOOKUP($A286,KT!$A:$B,2,FALSE))</f>
+        <v>순천 KBS1</v>
       </c>
       <c r="D286">
         <f>IF(ISNA(VLOOKUP($A286,KT!$A:$C,3,FALSE)),"",VLOOKUP($A286,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E286" t="s">
-        <v>293</v>
+      <c r="E286" t="str">
+        <f>IF(ISNA(VLOOKUP($A286,LG!$A:$B,2,FALSE)),"",VLOOKUP($A286,LG!$A:$B,2,FALSE))</f>
+        <v>순천 KBS1</v>
       </c>
       <c r="F286">
         <f>IF(ISNA(VLOOKUP($A286,LG!$A:$C,3,FALSE)),"",VLOOKUP($A286,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G286" t="s">
-        <v>293</v>
+      <c r="G286" t="str">
+        <f>IF(ISNA(VLOOKUP($A286,SK!$A:$B,2,FALSE)),"",VLOOKUP($A286,SK!$A:$B,2,FALSE))</f>
+        <v>순천 KBS1</v>
       </c>
       <c r="H286">
         <f>IF(ISNA(VLOOKUP($A286,SK!$A:$C,3,FALSE)),"",VLOOKUP($A286,SK!$A:$C,3,FALSE))</f>
@@ -13555,22 +13627,25 @@
       <c r="B287" t="s">
         <v>294</v>
       </c>
-      <c r="C287" t="s">
-        <v>294</v>
+      <c r="C287" t="str">
+        <f>IF(ISNA(VLOOKUP($A287,KT!$A:$B,2,FALSE)),"",VLOOKUP($A287,KT!$A:$B,2,FALSE))</f>
+        <v>안동 KBS1</v>
       </c>
       <c r="D287">
         <f>IF(ISNA(VLOOKUP($A287,KT!$A:$C,3,FALSE)),"",VLOOKUP($A287,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E287" t="s">
-        <v>294</v>
+      <c r="E287" t="str">
+        <f>IF(ISNA(VLOOKUP($A287,LG!$A:$B,2,FALSE)),"",VLOOKUP($A287,LG!$A:$B,2,FALSE))</f>
+        <v>안동 KBS1</v>
       </c>
       <c r="F287">
         <f>IF(ISNA(VLOOKUP($A287,LG!$A:$C,3,FALSE)),"",VLOOKUP($A287,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G287" t="s">
-        <v>294</v>
+      <c r="G287" t="str">
+        <f>IF(ISNA(VLOOKUP($A287,SK!$A:$B,2,FALSE)),"",VLOOKUP($A287,SK!$A:$B,2,FALSE))</f>
+        <v>안동 KBS1</v>
       </c>
       <c r="H287">
         <f>IF(ISNA(VLOOKUP($A287,SK!$A:$C,3,FALSE)),"",VLOOKUP($A287,SK!$A:$C,3,FALSE))</f>
@@ -13593,22 +13668,25 @@
       <c r="B288" t="s">
         <v>295</v>
       </c>
-      <c r="C288" t="s">
-        <v>295</v>
+      <c r="C288" t="str">
+        <f>IF(ISNA(VLOOKUP($A288,KT!$A:$B,2,FALSE)),"",VLOOKUP($A288,KT!$A:$B,2,FALSE))</f>
+        <v>안동 MBC</v>
       </c>
       <c r="D288">
         <f>IF(ISNA(VLOOKUP($A288,KT!$A:$C,3,FALSE)),"",VLOOKUP($A288,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E288" t="s">
-        <v>295</v>
+      <c r="E288" t="str">
+        <f>IF(ISNA(VLOOKUP($A288,LG!$A:$B,2,FALSE)),"",VLOOKUP($A288,LG!$A:$B,2,FALSE))</f>
+        <v>안동 MBC</v>
       </c>
       <c r="F288">
         <f>IF(ISNA(VLOOKUP($A288,LG!$A:$C,3,FALSE)),"",VLOOKUP($A288,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>295</v>
+      <c r="G288" t="str">
+        <f>IF(ISNA(VLOOKUP($A288,SK!$A:$B,2,FALSE)),"",VLOOKUP($A288,SK!$A:$B,2,FALSE))</f>
+        <v>안동 MBC</v>
       </c>
       <c r="H288">
         <f>IF(ISNA(VLOOKUP($A288,SK!$A:$C,3,FALSE)),"",VLOOKUP($A288,SK!$A:$C,3,FALSE))</f>
@@ -13631,22 +13709,25 @@
       <c r="B289" t="s">
         <v>296</v>
       </c>
-      <c r="C289" t="s">
-        <v>296</v>
+      <c r="C289" t="str">
+        <f>IF(ISNA(VLOOKUP($A289,KT!$A:$B,2,FALSE)),"",VLOOKUP($A289,KT!$A:$B,2,FALSE))</f>
+        <v>여수 MBC</v>
       </c>
       <c r="D289">
         <f>IF(ISNA(VLOOKUP($A289,KT!$A:$C,3,FALSE)),"",VLOOKUP($A289,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E289" t="s">
-        <v>296</v>
+      <c r="E289" t="str">
+        <f>IF(ISNA(VLOOKUP($A289,LG!$A:$B,2,FALSE)),"",VLOOKUP($A289,LG!$A:$B,2,FALSE))</f>
+        <v>여수 MBC</v>
       </c>
       <c r="F289">
         <f>IF(ISNA(VLOOKUP($A289,LG!$A:$C,3,FALSE)),"",VLOOKUP($A289,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>296</v>
+      <c r="G289" t="str">
+        <f>IF(ISNA(VLOOKUP($A289,SK!$A:$B,2,FALSE)),"",VLOOKUP($A289,SK!$A:$B,2,FALSE))</f>
+        <v>여수 MBC</v>
       </c>
       <c r="H289">
         <f>IF(ISNA(VLOOKUP($A289,SK!$A:$C,3,FALSE)),"",VLOOKUP($A289,SK!$A:$C,3,FALSE))</f>
@@ -13669,22 +13750,25 @@
       <c r="B290" t="s">
         <v>297</v>
       </c>
-      <c r="C290" t="s">
-        <v>297</v>
+      <c r="C290" t="str">
+        <f>IF(ISNA(VLOOKUP($A290,KT!$A:$B,2,FALSE)),"",VLOOKUP($A290,KT!$A:$B,2,FALSE))</f>
+        <v>울산 KBS1</v>
       </c>
       <c r="D290">
         <f>IF(ISNA(VLOOKUP($A290,KT!$A:$C,3,FALSE)),"",VLOOKUP($A290,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E290" t="s">
-        <v>297</v>
+      <c r="E290" t="str">
+        <f>IF(ISNA(VLOOKUP($A290,LG!$A:$B,2,FALSE)),"",VLOOKUP($A290,LG!$A:$B,2,FALSE))</f>
+        <v>울산 KBS1</v>
       </c>
       <c r="F290">
         <f>IF(ISNA(VLOOKUP($A290,LG!$A:$C,3,FALSE)),"",VLOOKUP($A290,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G290" t="s">
-        <v>297</v>
+      <c r="G290" t="str">
+        <f>IF(ISNA(VLOOKUP($A290,SK!$A:$B,2,FALSE)),"",VLOOKUP($A290,SK!$A:$B,2,FALSE))</f>
+        <v>울산 KBS1</v>
       </c>
       <c r="H290">
         <f>IF(ISNA(VLOOKUP($A290,SK!$A:$C,3,FALSE)),"",VLOOKUP($A290,SK!$A:$C,3,FALSE))</f>
@@ -13707,22 +13791,25 @@
       <c r="B291" t="s">
         <v>298</v>
       </c>
-      <c r="C291" t="s">
-        <v>298</v>
+      <c r="C291" t="str">
+        <f>IF(ISNA(VLOOKUP($A291,KT!$A:$B,2,FALSE)),"",VLOOKUP($A291,KT!$A:$B,2,FALSE))</f>
+        <v>울산 MBC</v>
       </c>
       <c r="D291">
         <f>IF(ISNA(VLOOKUP($A291,KT!$A:$C,3,FALSE)),"",VLOOKUP($A291,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E291" t="s">
-        <v>298</v>
+      <c r="E291" t="str">
+        <f>IF(ISNA(VLOOKUP($A291,LG!$A:$B,2,FALSE)),"",VLOOKUP($A291,LG!$A:$B,2,FALSE))</f>
+        <v>울산 MBC</v>
       </c>
       <c r="F291">
         <f>IF(ISNA(VLOOKUP($A291,LG!$A:$C,3,FALSE)),"",VLOOKUP($A291,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>298</v>
+      <c r="G291" t="str">
+        <f>IF(ISNA(VLOOKUP($A291,SK!$A:$B,2,FALSE)),"",VLOOKUP($A291,SK!$A:$B,2,FALSE))</f>
+        <v>울산 MBC</v>
       </c>
       <c r="H291">
         <f>IF(ISNA(VLOOKUP($A291,SK!$A:$C,3,FALSE)),"",VLOOKUP($A291,SK!$A:$C,3,FALSE))</f>
@@ -13745,22 +13832,25 @@
       <c r="B292" t="s">
         <v>299</v>
       </c>
-      <c r="C292" t="s">
-        <v>299</v>
+      <c r="C292" t="str">
+        <f>IF(ISNA(VLOOKUP($A292,KT!$A:$B,2,FALSE)),"",VLOOKUP($A292,KT!$A:$B,2,FALSE))</f>
+        <v>원주 KBS1</v>
       </c>
       <c r="D292">
         <f>IF(ISNA(VLOOKUP($A292,KT!$A:$C,3,FALSE)),"",VLOOKUP($A292,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E292" t="s">
-        <v>299</v>
+      <c r="E292" t="str">
+        <f>IF(ISNA(VLOOKUP($A292,LG!$A:$B,2,FALSE)),"",VLOOKUP($A292,LG!$A:$B,2,FALSE))</f>
+        <v>원주 KBS1</v>
       </c>
       <c r="F292">
         <f>IF(ISNA(VLOOKUP($A292,LG!$A:$C,3,FALSE)),"",VLOOKUP($A292,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G292" t="s">
-        <v>299</v>
+      <c r="G292" t="str">
+        <f>IF(ISNA(VLOOKUP($A292,SK!$A:$B,2,FALSE)),"",VLOOKUP($A292,SK!$A:$B,2,FALSE))</f>
+        <v>원주 KBS1</v>
       </c>
       <c r="H292">
         <f>IF(ISNA(VLOOKUP($A292,SK!$A:$C,3,FALSE)),"",VLOOKUP($A292,SK!$A:$C,3,FALSE))</f>
@@ -13783,22 +13873,25 @@
       <c r="B293" t="s">
         <v>300</v>
       </c>
-      <c r="C293" t="s">
-        <v>300</v>
+      <c r="C293" t="str">
+        <f>IF(ISNA(VLOOKUP($A293,KT!$A:$B,2,FALSE)),"",VLOOKUP($A293,KT!$A:$B,2,FALSE))</f>
+        <v>원주 MBC</v>
       </c>
       <c r="D293">
         <f>IF(ISNA(VLOOKUP($A293,KT!$A:$C,3,FALSE)),"",VLOOKUP($A293,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E293" t="s">
-        <v>300</v>
+      <c r="E293" t="str">
+        <f>IF(ISNA(VLOOKUP($A293,LG!$A:$B,2,FALSE)),"",VLOOKUP($A293,LG!$A:$B,2,FALSE))</f>
+        <v>원주 MBC</v>
       </c>
       <c r="F293">
         <f>IF(ISNA(VLOOKUP($A293,LG!$A:$C,3,FALSE)),"",VLOOKUP($A293,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>300</v>
+      <c r="G293" t="str">
+        <f>IF(ISNA(VLOOKUP($A293,SK!$A:$B,2,FALSE)),"",VLOOKUP($A293,SK!$A:$B,2,FALSE))</f>
+        <v>원주 MBC</v>
       </c>
       <c r="H293">
         <f>IF(ISNA(VLOOKUP($A293,SK!$A:$C,3,FALSE)),"",VLOOKUP($A293,SK!$A:$C,3,FALSE))</f>
@@ -13821,22 +13914,25 @@
       <c r="B294" t="s">
         <v>301</v>
       </c>
-      <c r="C294" t="s">
-        <v>301</v>
+      <c r="C294" t="str">
+        <f>IF(ISNA(VLOOKUP($A294,KT!$A:$B,2,FALSE)),"",VLOOKUP($A294,KT!$A:$B,2,FALSE))</f>
+        <v>전주 KBS1</v>
       </c>
       <c r="D294">
         <f>IF(ISNA(VLOOKUP($A294,KT!$A:$C,3,FALSE)),"",VLOOKUP($A294,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E294" t="s">
-        <v>301</v>
+      <c r="E294" t="str">
+        <f>IF(ISNA(VLOOKUP($A294,LG!$A:$B,2,FALSE)),"",VLOOKUP($A294,LG!$A:$B,2,FALSE))</f>
+        <v>전주 KBS1</v>
       </c>
       <c r="F294">
         <f>IF(ISNA(VLOOKUP($A294,LG!$A:$C,3,FALSE)),"",VLOOKUP($A294,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G294" t="s">
-        <v>301</v>
+      <c r="G294" t="str">
+        <f>IF(ISNA(VLOOKUP($A294,SK!$A:$B,2,FALSE)),"",VLOOKUP($A294,SK!$A:$B,2,FALSE))</f>
+        <v>전주 KBS1</v>
       </c>
       <c r="H294">
         <f>IF(ISNA(VLOOKUP($A294,SK!$A:$C,3,FALSE)),"",VLOOKUP($A294,SK!$A:$C,3,FALSE))</f>
@@ -13859,22 +13955,25 @@
       <c r="B295" t="s">
         <v>302</v>
       </c>
-      <c r="C295" t="s">
-        <v>302</v>
+      <c r="C295" t="str">
+        <f>IF(ISNA(VLOOKUP($A295,KT!$A:$B,2,FALSE)),"",VLOOKUP($A295,KT!$A:$B,2,FALSE))</f>
+        <v>전주 MBC</v>
       </c>
       <c r="D295">
         <f>IF(ISNA(VLOOKUP($A295,KT!$A:$C,3,FALSE)),"",VLOOKUP($A295,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E295" t="s">
-        <v>302</v>
+      <c r="E295" t="str">
+        <f>IF(ISNA(VLOOKUP($A295,LG!$A:$B,2,FALSE)),"",VLOOKUP($A295,LG!$A:$B,2,FALSE))</f>
+        <v>전주 MBC</v>
       </c>
       <c r="F295">
         <f>IF(ISNA(VLOOKUP($A295,LG!$A:$C,3,FALSE)),"",VLOOKUP($A295,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>302</v>
+      <c r="G295" t="str">
+        <f>IF(ISNA(VLOOKUP($A295,SK!$A:$B,2,FALSE)),"",VLOOKUP($A295,SK!$A:$B,2,FALSE))</f>
+        <v>전주 MBC</v>
       </c>
       <c r="H295">
         <f>IF(ISNA(VLOOKUP($A295,SK!$A:$C,3,FALSE)),"",VLOOKUP($A295,SK!$A:$C,3,FALSE))</f>
@@ -13897,22 +13996,25 @@
       <c r="B296" t="s">
         <v>303</v>
       </c>
-      <c r="C296" t="s">
-        <v>303</v>
+      <c r="C296" t="str">
+        <f>IF(ISNA(VLOOKUP($A296,KT!$A:$B,2,FALSE)),"",VLOOKUP($A296,KT!$A:$B,2,FALSE))</f>
+        <v>제주 KBS1</v>
       </c>
       <c r="D296">
         <f>IF(ISNA(VLOOKUP($A296,KT!$A:$C,3,FALSE)),"",VLOOKUP($A296,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E296" t="s">
-        <v>303</v>
+      <c r="E296" t="str">
+        <f>IF(ISNA(VLOOKUP($A296,LG!$A:$B,2,FALSE)),"",VLOOKUP($A296,LG!$A:$B,2,FALSE))</f>
+        <v>제주 KBS1</v>
       </c>
       <c r="F296">
         <f>IF(ISNA(VLOOKUP($A296,LG!$A:$C,3,FALSE)),"",VLOOKUP($A296,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G296" t="s">
-        <v>303</v>
+      <c r="G296" t="str">
+        <f>IF(ISNA(VLOOKUP($A296,SK!$A:$B,2,FALSE)),"",VLOOKUP($A296,SK!$A:$B,2,FALSE))</f>
+        <v>제주 KBS1</v>
       </c>
       <c r="H296">
         <f>IF(ISNA(VLOOKUP($A296,SK!$A:$C,3,FALSE)),"",VLOOKUP($A296,SK!$A:$C,3,FALSE))</f>
@@ -13935,22 +14037,25 @@
       <c r="B297" t="s">
         <v>304</v>
       </c>
-      <c r="C297" t="s">
-        <v>304</v>
+      <c r="C297" t="str">
+        <f>IF(ISNA(VLOOKUP($A297,KT!$A:$B,2,FALSE)),"",VLOOKUP($A297,KT!$A:$B,2,FALSE))</f>
+        <v>제주 MBC</v>
       </c>
       <c r="D297">
         <f>IF(ISNA(VLOOKUP($A297,KT!$A:$C,3,FALSE)),"",VLOOKUP($A297,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E297" t="s">
-        <v>304</v>
+      <c r="E297" t="str">
+        <f>IF(ISNA(VLOOKUP($A297,LG!$A:$B,2,FALSE)),"",VLOOKUP($A297,LG!$A:$B,2,FALSE))</f>
+        <v>제주 MBC</v>
       </c>
       <c r="F297">
         <f>IF(ISNA(VLOOKUP($A297,LG!$A:$C,3,FALSE)),"",VLOOKUP($A297,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>304</v>
+      <c r="G297" t="str">
+        <f>IF(ISNA(VLOOKUP($A297,SK!$A:$B,2,FALSE)),"",VLOOKUP($A297,SK!$A:$B,2,FALSE))</f>
+        <v>제주 MBC</v>
       </c>
       <c r="H297">
         <f>IF(ISNA(VLOOKUP($A297,SK!$A:$C,3,FALSE)),"",VLOOKUP($A297,SK!$A:$C,3,FALSE))</f>
@@ -13973,22 +14078,25 @@
       <c r="B298" t="s">
         <v>305</v>
       </c>
-      <c r="C298" t="s">
-        <v>305</v>
+      <c r="C298" t="str">
+        <f>IF(ISNA(VLOOKUP($A298,KT!$A:$B,2,FALSE)),"",VLOOKUP($A298,KT!$A:$B,2,FALSE))</f>
+        <v>진주 KBS1</v>
       </c>
       <c r="D298">
         <f>IF(ISNA(VLOOKUP($A298,KT!$A:$C,3,FALSE)),"",VLOOKUP($A298,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E298" t="s">
-        <v>305</v>
+      <c r="E298" t="str">
+        <f>IF(ISNA(VLOOKUP($A298,LG!$A:$B,2,FALSE)),"",VLOOKUP($A298,LG!$A:$B,2,FALSE))</f>
+        <v>진주 KBS1</v>
       </c>
       <c r="F298">
         <f>IF(ISNA(VLOOKUP($A298,LG!$A:$C,3,FALSE)),"",VLOOKUP($A298,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G298" t="s">
-        <v>305</v>
+      <c r="G298" t="str">
+        <f>IF(ISNA(VLOOKUP($A298,SK!$A:$B,2,FALSE)),"",VLOOKUP($A298,SK!$A:$B,2,FALSE))</f>
+        <v>진주 KBS1</v>
       </c>
       <c r="H298">
         <f>IF(ISNA(VLOOKUP($A298,SK!$A:$C,3,FALSE)),"",VLOOKUP($A298,SK!$A:$C,3,FALSE))</f>
@@ -14011,22 +14119,25 @@
       <c r="B299" t="s">
         <v>306</v>
       </c>
-      <c r="C299" t="s">
-        <v>306</v>
+      <c r="C299" t="str">
+        <f>IF(ISNA(VLOOKUP($A299,KT!$A:$B,2,FALSE)),"",VLOOKUP($A299,KT!$A:$B,2,FALSE))</f>
+        <v>진주MBC</v>
       </c>
       <c r="D299">
         <f>IF(ISNA(VLOOKUP($A299,KT!$A:$C,3,FALSE)),"",VLOOKUP($A299,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E299" t="s">
-        <v>306</v>
+      <c r="E299" t="str">
+        <f>IF(ISNA(VLOOKUP($A299,LG!$A:$B,2,FALSE)),"",VLOOKUP($A299,LG!$A:$B,2,FALSE))</f>
+        <v>진주MBC</v>
       </c>
       <c r="F299">
         <f>IF(ISNA(VLOOKUP($A299,LG!$A:$C,3,FALSE)),"",VLOOKUP($A299,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>306</v>
+      <c r="G299" t="str">
+        <f>IF(ISNA(VLOOKUP($A299,SK!$A:$B,2,FALSE)),"",VLOOKUP($A299,SK!$A:$B,2,FALSE))</f>
+        <v>진주MBC</v>
       </c>
       <c r="H299">
         <f>IF(ISNA(VLOOKUP($A299,SK!$A:$C,3,FALSE)),"",VLOOKUP($A299,SK!$A:$C,3,FALSE))</f>
@@ -14049,22 +14160,25 @@
       <c r="B300" t="s">
         <v>307</v>
       </c>
-      <c r="C300" t="s">
-        <v>307</v>
+      <c r="C300" t="str">
+        <f>IF(ISNA(VLOOKUP($A300,KT!$A:$B,2,FALSE)),"",VLOOKUP($A300,KT!$A:$B,2,FALSE))</f>
+        <v>창원 KBS1</v>
       </c>
       <c r="D300">
         <f>IF(ISNA(VLOOKUP($A300,KT!$A:$C,3,FALSE)),"",VLOOKUP($A300,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E300" t="s">
-        <v>307</v>
+      <c r="E300" t="str">
+        <f>IF(ISNA(VLOOKUP($A300,LG!$A:$B,2,FALSE)),"",VLOOKUP($A300,LG!$A:$B,2,FALSE))</f>
+        <v>창원 KBS1</v>
       </c>
       <c r="F300">
         <f>IF(ISNA(VLOOKUP($A300,LG!$A:$C,3,FALSE)),"",VLOOKUP($A300,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G300" t="s">
-        <v>307</v>
+      <c r="G300" t="str">
+        <f>IF(ISNA(VLOOKUP($A300,SK!$A:$B,2,FALSE)),"",VLOOKUP($A300,SK!$A:$B,2,FALSE))</f>
+        <v>창원 KBS1</v>
       </c>
       <c r="H300">
         <f>IF(ISNA(VLOOKUP($A300,SK!$A:$C,3,FALSE)),"",VLOOKUP($A300,SK!$A:$C,3,FALSE))</f>
@@ -14087,22 +14201,25 @@
       <c r="B301" t="s">
         <v>308</v>
       </c>
-      <c r="C301" t="s">
-        <v>308</v>
+      <c r="C301" t="str">
+        <f>IF(ISNA(VLOOKUP($A301,KT!$A:$B,2,FALSE)),"",VLOOKUP($A301,KT!$A:$B,2,FALSE))</f>
+        <v>청주 KBS1</v>
       </c>
       <c r="D301">
         <f>IF(ISNA(VLOOKUP($A301,KT!$A:$C,3,FALSE)),"",VLOOKUP($A301,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E301" t="s">
-        <v>308</v>
+      <c r="E301" t="str">
+        <f>IF(ISNA(VLOOKUP($A301,LG!$A:$B,2,FALSE)),"",VLOOKUP($A301,LG!$A:$B,2,FALSE))</f>
+        <v>청주 KBS1</v>
       </c>
       <c r="F301">
         <f>IF(ISNA(VLOOKUP($A301,LG!$A:$C,3,FALSE)),"",VLOOKUP($A301,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G301" t="s">
-        <v>308</v>
+      <c r="G301" t="str">
+        <f>IF(ISNA(VLOOKUP($A301,SK!$A:$B,2,FALSE)),"",VLOOKUP($A301,SK!$A:$B,2,FALSE))</f>
+        <v>청주 KBS1</v>
       </c>
       <c r="H301">
         <f>IF(ISNA(VLOOKUP($A301,SK!$A:$C,3,FALSE)),"",VLOOKUP($A301,SK!$A:$C,3,FALSE))</f>
@@ -14125,22 +14242,25 @@
       <c r="B302" t="s">
         <v>309</v>
       </c>
-      <c r="C302" t="s">
-        <v>309</v>
+      <c r="C302" t="str">
+        <f>IF(ISNA(VLOOKUP($A302,KT!$A:$B,2,FALSE)),"",VLOOKUP($A302,KT!$A:$B,2,FALSE))</f>
+        <v>청주 MBC</v>
       </c>
       <c r="D302">
         <f>IF(ISNA(VLOOKUP($A302,KT!$A:$C,3,FALSE)),"",VLOOKUP($A302,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E302" t="s">
-        <v>309</v>
+      <c r="E302" t="str">
+        <f>IF(ISNA(VLOOKUP($A302,LG!$A:$B,2,FALSE)),"",VLOOKUP($A302,LG!$A:$B,2,FALSE))</f>
+        <v>청주 MBC</v>
       </c>
       <c r="F302">
         <f>IF(ISNA(VLOOKUP($A302,LG!$A:$C,3,FALSE)),"",VLOOKUP($A302,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>309</v>
+      <c r="G302" t="str">
+        <f>IF(ISNA(VLOOKUP($A302,SK!$A:$B,2,FALSE)),"",VLOOKUP($A302,SK!$A:$B,2,FALSE))</f>
+        <v>청주 MBC</v>
       </c>
       <c r="H302">
         <f>IF(ISNA(VLOOKUP($A302,SK!$A:$C,3,FALSE)),"",VLOOKUP($A302,SK!$A:$C,3,FALSE))</f>
@@ -14163,22 +14283,25 @@
       <c r="B303" t="s">
         <v>310</v>
       </c>
-      <c r="C303" t="s">
-        <v>310</v>
+      <c r="C303" t="str">
+        <f>IF(ISNA(VLOOKUP($A303,KT!$A:$B,2,FALSE)),"",VLOOKUP($A303,KT!$A:$B,2,FALSE))</f>
+        <v>춘천 KBS1</v>
       </c>
       <c r="D303">
         <f>IF(ISNA(VLOOKUP($A303,KT!$A:$C,3,FALSE)),"",VLOOKUP($A303,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E303" t="s">
-        <v>310</v>
+      <c r="E303" t="str">
+        <f>IF(ISNA(VLOOKUP($A303,LG!$A:$B,2,FALSE)),"",VLOOKUP($A303,LG!$A:$B,2,FALSE))</f>
+        <v>춘천 KBS1</v>
       </c>
       <c r="F303">
         <f>IF(ISNA(VLOOKUP($A303,LG!$A:$C,3,FALSE)),"",VLOOKUP($A303,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G303" t="s">
-        <v>310</v>
+      <c r="G303" t="str">
+        <f>IF(ISNA(VLOOKUP($A303,SK!$A:$B,2,FALSE)),"",VLOOKUP($A303,SK!$A:$B,2,FALSE))</f>
+        <v>춘천 KBS1</v>
       </c>
       <c r="H303">
         <f>IF(ISNA(VLOOKUP($A303,SK!$A:$C,3,FALSE)),"",VLOOKUP($A303,SK!$A:$C,3,FALSE))</f>
@@ -14201,22 +14324,25 @@
       <c r="B304" t="s">
         <v>311</v>
       </c>
-      <c r="C304" t="s">
-        <v>311</v>
+      <c r="C304" t="str">
+        <f>IF(ISNA(VLOOKUP($A304,KT!$A:$B,2,FALSE)),"",VLOOKUP($A304,KT!$A:$B,2,FALSE))</f>
+        <v>춘천 MBC</v>
       </c>
       <c r="D304">
         <f>IF(ISNA(VLOOKUP($A304,KT!$A:$C,3,FALSE)),"",VLOOKUP($A304,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E304" t="s">
-        <v>311</v>
+      <c r="E304" t="str">
+        <f>IF(ISNA(VLOOKUP($A304,LG!$A:$B,2,FALSE)),"",VLOOKUP($A304,LG!$A:$B,2,FALSE))</f>
+        <v>춘천 MBC</v>
       </c>
       <c r="F304">
         <f>IF(ISNA(VLOOKUP($A304,LG!$A:$C,3,FALSE)),"",VLOOKUP($A304,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>311</v>
+      <c r="G304" t="str">
+        <f>IF(ISNA(VLOOKUP($A304,SK!$A:$B,2,FALSE)),"",VLOOKUP($A304,SK!$A:$B,2,FALSE))</f>
+        <v>춘천 MBC</v>
       </c>
       <c r="H304">
         <f>IF(ISNA(VLOOKUP($A304,SK!$A:$C,3,FALSE)),"",VLOOKUP($A304,SK!$A:$C,3,FALSE))</f>
@@ -14239,22 +14365,25 @@
       <c r="B305" t="s">
         <v>312</v>
       </c>
-      <c r="C305" t="s">
-        <v>312</v>
+      <c r="C305" t="str">
+        <f>IF(ISNA(VLOOKUP($A305,KT!$A:$B,2,FALSE)),"",VLOOKUP($A305,KT!$A:$B,2,FALSE))</f>
+        <v>충주 KBS1</v>
       </c>
       <c r="D305">
         <f>IF(ISNA(VLOOKUP($A305,KT!$A:$C,3,FALSE)),"",VLOOKUP($A305,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E305" t="s">
-        <v>312</v>
+      <c r="E305" t="str">
+        <f>IF(ISNA(VLOOKUP($A305,LG!$A:$B,2,FALSE)),"",VLOOKUP($A305,LG!$A:$B,2,FALSE))</f>
+        <v>충주 KBS1</v>
       </c>
       <c r="F305">
         <f>IF(ISNA(VLOOKUP($A305,LG!$A:$C,3,FALSE)),"",VLOOKUP($A305,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G305" t="s">
-        <v>312</v>
+      <c r="G305" t="str">
+        <f>IF(ISNA(VLOOKUP($A305,SK!$A:$B,2,FALSE)),"",VLOOKUP($A305,SK!$A:$B,2,FALSE))</f>
+        <v>충주 KBS1</v>
       </c>
       <c r="H305">
         <f>IF(ISNA(VLOOKUP($A305,SK!$A:$C,3,FALSE)),"",VLOOKUP($A305,SK!$A:$C,3,FALSE))</f>
@@ -14277,22 +14406,25 @@
       <c r="B306" t="s">
         <v>313</v>
       </c>
-      <c r="C306" t="s">
-        <v>313</v>
+      <c r="C306" t="str">
+        <f>IF(ISNA(VLOOKUP($A306,KT!$A:$B,2,FALSE)),"",VLOOKUP($A306,KT!$A:$B,2,FALSE))</f>
+        <v>충주 MBC</v>
       </c>
       <c r="D306">
         <f>IF(ISNA(VLOOKUP($A306,KT!$A:$C,3,FALSE)),"",VLOOKUP($A306,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E306" t="s">
-        <v>313</v>
+      <c r="E306" t="str">
+        <f>IF(ISNA(VLOOKUP($A306,LG!$A:$B,2,FALSE)),"",VLOOKUP($A306,LG!$A:$B,2,FALSE))</f>
+        <v>충주 MBC</v>
       </c>
       <c r="F306">
         <f>IF(ISNA(VLOOKUP($A306,LG!$A:$C,3,FALSE)),"",VLOOKUP($A306,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>313</v>
+      <c r="G306" t="str">
+        <f>IF(ISNA(VLOOKUP($A306,SK!$A:$B,2,FALSE)),"",VLOOKUP($A306,SK!$A:$B,2,FALSE))</f>
+        <v>충주 MBC</v>
       </c>
       <c r="H306">
         <f>IF(ISNA(VLOOKUP($A306,SK!$A:$C,3,FALSE)),"",VLOOKUP($A306,SK!$A:$C,3,FALSE))</f>
@@ -14315,22 +14447,25 @@
       <c r="B307" t="s">
         <v>314</v>
       </c>
-      <c r="C307" t="s">
-        <v>314</v>
+      <c r="C307" t="str">
+        <f>IF(ISNA(VLOOKUP($A307,KT!$A:$B,2,FALSE)),"",VLOOKUP($A307,KT!$A:$B,2,FALSE))</f>
+        <v>포항 KBS1</v>
       </c>
       <c r="D307">
         <f>IF(ISNA(VLOOKUP($A307,KT!$A:$C,3,FALSE)),"",VLOOKUP($A307,KT!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="E307" t="s">
-        <v>314</v>
+      <c r="E307" t="str">
+        <f>IF(ISNA(VLOOKUP($A307,LG!$A:$B,2,FALSE)),"",VLOOKUP($A307,LG!$A:$B,2,FALSE))</f>
+        <v>포항 KBS1</v>
       </c>
       <c r="F307">
         <f>IF(ISNA(VLOOKUP($A307,LG!$A:$C,3,FALSE)),"",VLOOKUP($A307,LG!$A:$C,3,FALSE))</f>
         <v>9</v>
       </c>
-      <c r="G307" t="s">
-        <v>314</v>
+      <c r="G307" t="str">
+        <f>IF(ISNA(VLOOKUP($A307,SK!$A:$B,2,FALSE)),"",VLOOKUP($A307,SK!$A:$B,2,FALSE))</f>
+        <v>포항 KBS1</v>
       </c>
       <c r="H307">
         <f>IF(ISNA(VLOOKUP($A307,SK!$A:$C,3,FALSE)),"",VLOOKUP($A307,SK!$A:$C,3,FALSE))</f>
@@ -14353,22 +14488,25 @@
       <c r="B308" t="s">
         <v>315</v>
       </c>
-      <c r="C308" t="s">
-        <v>315</v>
+      <c r="C308" t="str">
+        <f>IF(ISNA(VLOOKUP($A308,KT!$A:$B,2,FALSE)),"",VLOOKUP($A308,KT!$A:$B,2,FALSE))</f>
+        <v>포항 MBC</v>
       </c>
       <c r="D308">
         <f>IF(ISNA(VLOOKUP($A308,KT!$A:$C,3,FALSE)),"",VLOOKUP($A308,KT!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="E308" t="s">
-        <v>315</v>
+      <c r="E308" t="str">
+        <f>IF(ISNA(VLOOKUP($A308,LG!$A:$B,2,FALSE)),"",VLOOKUP($A308,LG!$A:$B,2,FALSE))</f>
+        <v>포항 MBC</v>
       </c>
       <c r="F308">
         <f>IF(ISNA(VLOOKUP($A308,LG!$A:$C,3,FALSE)),"",VLOOKUP($A308,LG!$A:$C,3,FALSE))</f>
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>315</v>
+      <c r="G308" t="str">
+        <f>IF(ISNA(VLOOKUP($A308,SK!$A:$B,2,FALSE)),"",VLOOKUP($A308,SK!$A:$B,2,FALSE))</f>
+        <v>포항 MBC</v>
       </c>
       <c r="H308">
         <f>IF(ISNA(VLOOKUP($A308,SK!$A:$C,3,FALSE)),"",VLOOKUP($A308,SK!$A:$C,3,FALSE))</f>
@@ -14605,8 +14743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244:C289"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244:B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17291,9 +17429,8 @@
       <c r="A244">
         <v>362</v>
       </c>
-      <c r="B244" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A244,KT!$A:$B,2,FALSE)),"",VLOOKUP($A244,KT!$A:$B,2,FALSE))</f>
-        <v>CJB 청주방송</v>
+      <c r="B244" t="s">
+        <v>270</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -17303,9 +17440,8 @@
       <c r="A245">
         <v>363</v>
       </c>
-      <c r="B245" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A245,KT!$A:$B,2,FALSE)),"",VLOOKUP($A245,KT!$A:$B,2,FALSE))</f>
-        <v>G1 강원민방</v>
+      <c r="B245" t="s">
+        <v>271</v>
       </c>
       <c r="C245">
         <v>5</v>
@@ -17315,9 +17451,8 @@
       <c r="A246">
         <v>364</v>
       </c>
-      <c r="B246" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A246,KT!$A:$B,2,FALSE)),"",VLOOKUP($A246,KT!$A:$B,2,FALSE))</f>
-        <v>JIBS 제주방송</v>
+      <c r="B246" t="s">
+        <v>272</v>
       </c>
       <c r="C246">
         <v>5</v>
@@ -17327,9 +17462,8 @@
       <c r="A247">
         <v>365</v>
       </c>
-      <c r="B247" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A247,KT!$A:$B,2,FALSE)),"",VLOOKUP($A247,KT!$A:$B,2,FALSE))</f>
-        <v>JTV 전주방송</v>
+      <c r="B247" t="s">
+        <v>273</v>
       </c>
       <c r="C247">
         <v>5</v>
@@ -17339,9 +17473,8 @@
       <c r="A248">
         <v>366</v>
       </c>
-      <c r="B248" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A248,KT!$A:$B,2,FALSE)),"",VLOOKUP($A248,KT!$A:$B,2,FALSE))</f>
-        <v>KBC 광주방송</v>
+      <c r="B248" t="s">
+        <v>274</v>
       </c>
       <c r="C248">
         <v>5</v>
@@ -17351,9 +17484,8 @@
       <c r="A249">
         <v>367</v>
       </c>
-      <c r="B249" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A249,KT!$A:$B,2,FALSE)),"",VLOOKUP($A249,KT!$A:$B,2,FALSE))</f>
-        <v>KNN 부산경남방송</v>
+      <c r="B249" t="s">
+        <v>275</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -17363,9 +17495,8 @@
       <c r="A250">
         <v>369</v>
       </c>
-      <c r="B250" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A250,KT!$A:$B,2,FALSE)),"",VLOOKUP($A250,KT!$A:$B,2,FALSE))</f>
-        <v>TBC 대구방송</v>
+      <c r="B250" t="s">
+        <v>276</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -17375,9 +17506,8 @@
       <c r="A251">
         <v>370</v>
       </c>
-      <c r="B251" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A251,KT!$A:$B,2,FALSE)),"",VLOOKUP($A251,KT!$A:$B,2,FALSE))</f>
-        <v>TJB 대전방송</v>
+      <c r="B251" t="s">
+        <v>277</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -17387,9 +17517,8 @@
       <c r="A252">
         <v>371</v>
       </c>
-      <c r="B252" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A252,KT!$A:$B,2,FALSE)),"",VLOOKUP($A252,KT!$A:$B,2,FALSE))</f>
-        <v>UBC 울산방송</v>
+      <c r="B252" t="s">
+        <v>278</v>
       </c>
       <c r="C252">
         <v>5</v>
@@ -17399,9 +17528,8 @@
       <c r="A253">
         <v>372</v>
       </c>
-      <c r="B253" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A253,KT!$A:$B,2,FALSE)),"",VLOOKUP($A253,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 KBS1</v>
+      <c r="B253" t="s">
+        <v>279</v>
       </c>
       <c r="C253">
         <v>9</v>
@@ -17411,9 +17539,8 @@
       <c r="A254">
         <v>373</v>
       </c>
-      <c r="B254" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A254,KT!$A:$B,2,FALSE)),"",VLOOKUP($A254,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 MBC</v>
+      <c r="B254" t="s">
+        <v>280</v>
       </c>
       <c r="C254">
         <v>11</v>
@@ -17423,9 +17550,8 @@
       <c r="A255">
         <v>374</v>
       </c>
-      <c r="B255" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A255,KT!$A:$B,2,FALSE)),"",VLOOKUP($A255,KT!$A:$B,2,FALSE))</f>
-        <v>경인 KBS1</v>
+      <c r="B255" t="s">
+        <v>281</v>
       </c>
       <c r="C255">
         <v>9</v>
@@ -17435,9 +17561,8 @@
       <c r="A256">
         <v>375</v>
       </c>
-      <c r="B256" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A256,KT!$A:$B,2,FALSE)),"",VLOOKUP($A256,KT!$A:$B,2,FALSE))</f>
-        <v>광주 KBS1</v>
+      <c r="B256" t="s">
+        <v>282</v>
       </c>
       <c r="C256">
         <v>9</v>
@@ -17447,9 +17572,8 @@
       <c r="A257">
         <v>376</v>
       </c>
-      <c r="B257" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A257,KT!$A:$B,2,FALSE)),"",VLOOKUP($A257,KT!$A:$B,2,FALSE))</f>
-        <v>광주 MBC</v>
+      <c r="B257" t="s">
+        <v>283</v>
       </c>
       <c r="C257">
         <v>11</v>
@@ -17459,9 +17583,8 @@
       <c r="A258">
         <v>377</v>
       </c>
-      <c r="B258" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A258,KT!$A:$B,2,FALSE)),"",VLOOKUP($A258,KT!$A:$B,2,FALSE))</f>
-        <v>대구 KBS1</v>
+      <c r="B258" t="s">
+        <v>284</v>
       </c>
       <c r="C258">
         <v>9</v>
@@ -17471,9 +17594,8 @@
       <c r="A259">
         <v>378</v>
       </c>
-      <c r="B259" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A259,KT!$A:$B,2,FALSE)),"",VLOOKUP($A259,KT!$A:$B,2,FALSE))</f>
-        <v>대구 MBC</v>
+      <c r="B259" t="s">
+        <v>285</v>
       </c>
       <c r="C259">
         <v>11</v>
@@ -17483,9 +17605,8 @@
       <c r="A260">
         <v>379</v>
       </c>
-      <c r="B260" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A260,KT!$A:$B,2,FALSE)),"",VLOOKUP($A260,KT!$A:$B,2,FALSE))</f>
-        <v>대전 KBS1</v>
+      <c r="B260" t="s">
+        <v>286</v>
       </c>
       <c r="C260">
         <v>9</v>
@@ -17495,9 +17616,8 @@
       <c r="A261">
         <v>380</v>
       </c>
-      <c r="B261" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A261,KT!$A:$B,2,FALSE)),"",VLOOKUP($A261,KT!$A:$B,2,FALSE))</f>
-        <v>대전 MBC</v>
+      <c r="B261" t="s">
+        <v>287</v>
       </c>
       <c r="C261">
         <v>11</v>
@@ -17507,9 +17627,8 @@
       <c r="A262">
         <v>381</v>
       </c>
-      <c r="B262" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A262,KT!$A:$B,2,FALSE)),"",VLOOKUP($A262,KT!$A:$B,2,FALSE))</f>
-        <v>목포 KBS1</v>
+      <c r="B262" t="s">
+        <v>288</v>
       </c>
       <c r="C262">
         <v>9</v>
@@ -17519,9 +17638,8 @@
       <c r="A263">
         <v>382</v>
       </c>
-      <c r="B263" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A263,KT!$A:$B,2,FALSE)),"",VLOOKUP($A263,KT!$A:$B,2,FALSE))</f>
-        <v>목포 MBC</v>
+      <c r="B263" t="s">
+        <v>289</v>
       </c>
       <c r="C263">
         <v>11</v>
@@ -17531,9 +17649,8 @@
       <c r="A264">
         <v>383</v>
       </c>
-      <c r="B264" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A264,KT!$A:$B,2,FALSE)),"",VLOOKUP($A264,KT!$A:$B,2,FALSE))</f>
-        <v>부산 KBS1</v>
+      <c r="B264" t="s">
+        <v>290</v>
       </c>
       <c r="C264">
         <v>9</v>
@@ -17543,9 +17660,8 @@
       <c r="A265">
         <v>384</v>
       </c>
-      <c r="B265" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A265,KT!$A:$B,2,FALSE)),"",VLOOKUP($A265,KT!$A:$B,2,FALSE))</f>
-        <v>부산 MBC</v>
+      <c r="B265" t="s">
+        <v>291</v>
       </c>
       <c r="C265">
         <v>11</v>
@@ -17555,9 +17671,8 @@
       <c r="A266">
         <v>385</v>
       </c>
-      <c r="B266" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A266,KT!$A:$B,2,FALSE)),"",VLOOKUP($A266,KT!$A:$B,2,FALSE))</f>
-        <v>삼척 MBC</v>
+      <c r="B266" t="s">
+        <v>292</v>
       </c>
       <c r="C266">
         <v>11</v>
@@ -17567,9 +17682,8 @@
       <c r="A267">
         <v>386</v>
       </c>
-      <c r="B267" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A267,KT!$A:$B,2,FALSE)),"",VLOOKUP($A267,KT!$A:$B,2,FALSE))</f>
-        <v>순천 KBS1</v>
+      <c r="B267" t="s">
+        <v>293</v>
       </c>
       <c r="C267">
         <v>9</v>
@@ -17579,9 +17693,8 @@
       <c r="A268">
         <v>387</v>
       </c>
-      <c r="B268" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A268,KT!$A:$B,2,FALSE)),"",VLOOKUP($A268,KT!$A:$B,2,FALSE))</f>
-        <v>안동 KBS1</v>
+      <c r="B268" t="s">
+        <v>294</v>
       </c>
       <c r="C268">
         <v>9</v>
@@ -17591,9 +17704,8 @@
       <c r="A269">
         <v>388</v>
       </c>
-      <c r="B269" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A269,KT!$A:$B,2,FALSE)),"",VLOOKUP($A269,KT!$A:$B,2,FALSE))</f>
-        <v>안동 MBC</v>
+      <c r="B269" t="s">
+        <v>295</v>
       </c>
       <c r="C269">
         <v>11</v>
@@ -17603,9 +17715,8 @@
       <c r="A270">
         <v>389</v>
       </c>
-      <c r="B270" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A270,KT!$A:$B,2,FALSE)),"",VLOOKUP($A270,KT!$A:$B,2,FALSE))</f>
-        <v>여수 MBC</v>
+      <c r="B270" t="s">
+        <v>296</v>
       </c>
       <c r="C270">
         <v>11</v>
@@ -17615,9 +17726,8 @@
       <c r="A271">
         <v>390</v>
       </c>
-      <c r="B271" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A271,KT!$A:$B,2,FALSE)),"",VLOOKUP($A271,KT!$A:$B,2,FALSE))</f>
-        <v>울산 KBS1</v>
+      <c r="B271" t="s">
+        <v>297</v>
       </c>
       <c r="C271">
         <v>9</v>
@@ -17627,9 +17737,8 @@
       <c r="A272">
         <v>391</v>
       </c>
-      <c r="B272" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A272,KT!$A:$B,2,FALSE)),"",VLOOKUP($A272,KT!$A:$B,2,FALSE))</f>
-        <v>울산 MBC</v>
+      <c r="B272" t="s">
+        <v>298</v>
       </c>
       <c r="C272">
         <v>11</v>
@@ -17639,9 +17748,8 @@
       <c r="A273">
         <v>392</v>
       </c>
-      <c r="B273" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A273,KT!$A:$B,2,FALSE)),"",VLOOKUP($A273,KT!$A:$B,2,FALSE))</f>
-        <v>원주 KBS1</v>
+      <c r="B273" t="s">
+        <v>299</v>
       </c>
       <c r="C273">
         <v>9</v>
@@ -17651,9 +17759,8 @@
       <c r="A274">
         <v>393</v>
       </c>
-      <c r="B274" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A274,KT!$A:$B,2,FALSE)),"",VLOOKUP($A274,KT!$A:$B,2,FALSE))</f>
-        <v>원주 MBC</v>
+      <c r="B274" t="s">
+        <v>300</v>
       </c>
       <c r="C274">
         <v>11</v>
@@ -17663,9 +17770,8 @@
       <c r="A275">
         <v>394</v>
       </c>
-      <c r="B275" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A275,KT!$A:$B,2,FALSE)),"",VLOOKUP($A275,KT!$A:$B,2,FALSE))</f>
-        <v>전주 KBS1</v>
+      <c r="B275" t="s">
+        <v>301</v>
       </c>
       <c r="C275">
         <v>9</v>
@@ -17675,9 +17781,8 @@
       <c r="A276">
         <v>395</v>
       </c>
-      <c r="B276" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A276,KT!$A:$B,2,FALSE)),"",VLOOKUP($A276,KT!$A:$B,2,FALSE))</f>
-        <v>전주 MBC</v>
+      <c r="B276" t="s">
+        <v>302</v>
       </c>
       <c r="C276">
         <v>11</v>
@@ -17687,9 +17792,8 @@
       <c r="A277">
         <v>396</v>
       </c>
-      <c r="B277" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A277,KT!$A:$B,2,FALSE)),"",VLOOKUP($A277,KT!$A:$B,2,FALSE))</f>
-        <v>제주 KBS1</v>
+      <c r="B277" t="s">
+        <v>303</v>
       </c>
       <c r="C277">
         <v>9</v>
@@ -17699,9 +17803,8 @@
       <c r="A278">
         <v>397</v>
       </c>
-      <c r="B278" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A278,KT!$A:$B,2,FALSE)),"",VLOOKUP($A278,KT!$A:$B,2,FALSE))</f>
-        <v>제주 MBC</v>
+      <c r="B278" t="s">
+        <v>304</v>
       </c>
       <c r="C278">
         <v>11</v>
@@ -17711,9 +17814,8 @@
       <c r="A279">
         <v>398</v>
       </c>
-      <c r="B279" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A279,KT!$A:$B,2,FALSE)),"",VLOOKUP($A279,KT!$A:$B,2,FALSE))</f>
-        <v>진주 KBS1</v>
+      <c r="B279" t="s">
+        <v>305</v>
       </c>
       <c r="C279">
         <v>9</v>
@@ -17723,9 +17825,8 @@
       <c r="A280">
         <v>399</v>
       </c>
-      <c r="B280" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A280,KT!$A:$B,2,FALSE)),"",VLOOKUP($A280,KT!$A:$B,2,FALSE))</f>
-        <v>진주MBC</v>
+      <c r="B280" t="s">
+        <v>306</v>
       </c>
       <c r="C280">
         <v>11</v>
@@ -17735,9 +17836,8 @@
       <c r="A281">
         <v>400</v>
       </c>
-      <c r="B281" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A281,KT!$A:$B,2,FALSE)),"",VLOOKUP($A281,KT!$A:$B,2,FALSE))</f>
-        <v>창원 KBS1</v>
+      <c r="B281" t="s">
+        <v>307</v>
       </c>
       <c r="C281">
         <v>9</v>
@@ -17747,9 +17847,8 @@
       <c r="A282">
         <v>401</v>
       </c>
-      <c r="B282" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A282,KT!$A:$B,2,FALSE)),"",VLOOKUP($A282,KT!$A:$B,2,FALSE))</f>
-        <v>청주 KBS1</v>
+      <c r="B282" t="s">
+        <v>308</v>
       </c>
       <c r="C282">
         <v>9</v>
@@ -17759,9 +17858,8 @@
       <c r="A283">
         <v>402</v>
       </c>
-      <c r="B283" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A283,KT!$A:$B,2,FALSE)),"",VLOOKUP($A283,KT!$A:$B,2,FALSE))</f>
-        <v>청주 MBC</v>
+      <c r="B283" t="s">
+        <v>309</v>
       </c>
       <c r="C283">
         <v>11</v>
@@ -17771,9 +17869,8 @@
       <c r="A284">
         <v>403</v>
       </c>
-      <c r="B284" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A284,KT!$A:$B,2,FALSE)),"",VLOOKUP($A284,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 KBS1</v>
+      <c r="B284" t="s">
+        <v>310</v>
       </c>
       <c r="C284">
         <v>9</v>
@@ -17783,9 +17880,8 @@
       <c r="A285">
         <v>404</v>
       </c>
-      <c r="B285" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A285,KT!$A:$B,2,FALSE)),"",VLOOKUP($A285,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 MBC</v>
+      <c r="B285" t="s">
+        <v>311</v>
       </c>
       <c r="C285">
         <v>11</v>
@@ -17795,9 +17891,8 @@
       <c r="A286">
         <v>405</v>
       </c>
-      <c r="B286" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A286,KT!$A:$B,2,FALSE)),"",VLOOKUP($A286,KT!$A:$B,2,FALSE))</f>
-        <v>충주 KBS1</v>
+      <c r="B286" t="s">
+        <v>312</v>
       </c>
       <c r="C286">
         <v>9</v>
@@ -17807,9 +17902,8 @@
       <c r="A287">
         <v>406</v>
       </c>
-      <c r="B287" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A287,KT!$A:$B,2,FALSE)),"",VLOOKUP($A287,KT!$A:$B,2,FALSE))</f>
-        <v>충주 MBC</v>
+      <c r="B287" t="s">
+        <v>313</v>
       </c>
       <c r="C287">
         <v>11</v>
@@ -17819,9 +17913,8 @@
       <c r="A288">
         <v>407</v>
       </c>
-      <c r="B288" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A288,KT!$A:$B,2,FALSE)),"",VLOOKUP($A288,KT!$A:$B,2,FALSE))</f>
-        <v>포항 KBS1</v>
+      <c r="B288" t="s">
+        <v>314</v>
       </c>
       <c r="C288">
         <v>9</v>
@@ -17831,9 +17924,8 @@
       <c r="A289">
         <v>408</v>
       </c>
-      <c r="B289" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A289,KT!$A:$B,2,FALSE)),"",VLOOKUP($A289,KT!$A:$B,2,FALSE))</f>
-        <v>포항 MBC</v>
+      <c r="B289" t="s">
+        <v>315</v>
       </c>
       <c r="C289">
         <v>11</v>
@@ -17890,8 +17982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:C225"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19872,9 +19964,8 @@
       <c r="A180">
         <v>362</v>
       </c>
-      <c r="B180" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A180,KT!$A:$B,2,FALSE)),"",VLOOKUP($A180,KT!$A:$B,2,FALSE))</f>
-        <v>CJB 청주방송</v>
+      <c r="B180" t="s">
+        <v>270</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -19884,9 +19975,8 @@
       <c r="A181">
         <v>363</v>
       </c>
-      <c r="B181" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A181,KT!$A:$B,2,FALSE)),"",VLOOKUP($A181,KT!$A:$B,2,FALSE))</f>
-        <v>G1 강원민방</v>
+      <c r="B181" t="s">
+        <v>271</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -19896,9 +19986,8 @@
       <c r="A182">
         <v>364</v>
       </c>
-      <c r="B182" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A182,KT!$A:$B,2,FALSE)),"",VLOOKUP($A182,KT!$A:$B,2,FALSE))</f>
-        <v>JIBS 제주방송</v>
+      <c r="B182" t="s">
+        <v>272</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -19908,9 +19997,8 @@
       <c r="A183">
         <v>365</v>
       </c>
-      <c r="B183" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A183,KT!$A:$B,2,FALSE)),"",VLOOKUP($A183,KT!$A:$B,2,FALSE))</f>
-        <v>JTV 전주방송</v>
+      <c r="B183" t="s">
+        <v>273</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -19920,9 +20008,8 @@
       <c r="A184">
         <v>366</v>
       </c>
-      <c r="B184" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A184,KT!$A:$B,2,FALSE)),"",VLOOKUP($A184,KT!$A:$B,2,FALSE))</f>
-        <v>KBC 광주방송</v>
+      <c r="B184" t="s">
+        <v>274</v>
       </c>
       <c r="C184">
         <v>5</v>
@@ -19932,9 +20019,8 @@
       <c r="A185">
         <v>367</v>
       </c>
-      <c r="B185" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A185,KT!$A:$B,2,FALSE)),"",VLOOKUP($A185,KT!$A:$B,2,FALSE))</f>
-        <v>KNN 부산경남방송</v>
+      <c r="B185" t="s">
+        <v>275</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -19944,9 +20030,8 @@
       <c r="A186">
         <v>369</v>
       </c>
-      <c r="B186" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A186,KT!$A:$B,2,FALSE)),"",VLOOKUP($A186,KT!$A:$B,2,FALSE))</f>
-        <v>TBC 대구방송</v>
+      <c r="B186" t="s">
+        <v>276</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -19956,9 +20041,8 @@
       <c r="A187">
         <v>370</v>
       </c>
-      <c r="B187" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A187,KT!$A:$B,2,FALSE)),"",VLOOKUP($A187,KT!$A:$B,2,FALSE))</f>
-        <v>TJB 대전방송</v>
+      <c r="B187" t="s">
+        <v>277</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -19968,9 +20052,8 @@
       <c r="A188">
         <v>371</v>
       </c>
-      <c r="B188" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A188,KT!$A:$B,2,FALSE)),"",VLOOKUP($A188,KT!$A:$B,2,FALSE))</f>
-        <v>UBC 울산방송</v>
+      <c r="B188" t="s">
+        <v>278</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -19980,9 +20063,8 @@
       <c r="A189">
         <v>372</v>
       </c>
-      <c r="B189" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A189,KT!$A:$B,2,FALSE)),"",VLOOKUP($A189,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 KBS1</v>
+      <c r="B189" t="s">
+        <v>279</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -19992,9 +20074,8 @@
       <c r="A190">
         <v>373</v>
       </c>
-      <c r="B190" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A190,KT!$A:$B,2,FALSE)),"",VLOOKUP($A190,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 MBC</v>
+      <c r="B190" t="s">
+        <v>280</v>
       </c>
       <c r="C190">
         <v>11</v>
@@ -20004,9 +20085,8 @@
       <c r="A191">
         <v>374</v>
       </c>
-      <c r="B191" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A191,KT!$A:$B,2,FALSE)),"",VLOOKUP($A191,KT!$A:$B,2,FALSE))</f>
-        <v>경인 KBS1</v>
+      <c r="B191" t="s">
+        <v>281</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -20016,9 +20096,8 @@
       <c r="A192">
         <v>375</v>
       </c>
-      <c r="B192" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A192,KT!$A:$B,2,FALSE)),"",VLOOKUP($A192,KT!$A:$B,2,FALSE))</f>
-        <v>광주 KBS1</v>
+      <c r="B192" t="s">
+        <v>282</v>
       </c>
       <c r="C192">
         <v>9</v>
@@ -20028,9 +20107,8 @@
       <c r="A193">
         <v>376</v>
       </c>
-      <c r="B193" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A193,KT!$A:$B,2,FALSE)),"",VLOOKUP($A193,KT!$A:$B,2,FALSE))</f>
-        <v>광주 MBC</v>
+      <c r="B193" t="s">
+        <v>283</v>
       </c>
       <c r="C193">
         <v>11</v>
@@ -20040,9 +20118,8 @@
       <c r="A194">
         <v>377</v>
       </c>
-      <c r="B194" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A194,KT!$A:$B,2,FALSE)),"",VLOOKUP($A194,KT!$A:$B,2,FALSE))</f>
-        <v>대구 KBS1</v>
+      <c r="B194" t="s">
+        <v>284</v>
       </c>
       <c r="C194">
         <v>9</v>
@@ -20052,9 +20129,8 @@
       <c r="A195">
         <v>378</v>
       </c>
-      <c r="B195" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A195,KT!$A:$B,2,FALSE)),"",VLOOKUP($A195,KT!$A:$B,2,FALSE))</f>
-        <v>대구 MBC</v>
+      <c r="B195" t="s">
+        <v>285</v>
       </c>
       <c r="C195">
         <v>11</v>
@@ -20064,9 +20140,8 @@
       <c r="A196">
         <v>379</v>
       </c>
-      <c r="B196" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A196,KT!$A:$B,2,FALSE)),"",VLOOKUP($A196,KT!$A:$B,2,FALSE))</f>
-        <v>대전 KBS1</v>
+      <c r="B196" t="s">
+        <v>286</v>
       </c>
       <c r="C196">
         <v>9</v>
@@ -20076,9 +20151,8 @@
       <c r="A197">
         <v>380</v>
       </c>
-      <c r="B197" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A197,KT!$A:$B,2,FALSE)),"",VLOOKUP($A197,KT!$A:$B,2,FALSE))</f>
-        <v>대전 MBC</v>
+      <c r="B197" t="s">
+        <v>287</v>
       </c>
       <c r="C197">
         <v>11</v>
@@ -20088,9 +20162,8 @@
       <c r="A198">
         <v>381</v>
       </c>
-      <c r="B198" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A198,KT!$A:$B,2,FALSE)),"",VLOOKUP($A198,KT!$A:$B,2,FALSE))</f>
-        <v>목포 KBS1</v>
+      <c r="B198" t="s">
+        <v>288</v>
       </c>
       <c r="C198">
         <v>9</v>
@@ -20100,9 +20173,8 @@
       <c r="A199">
         <v>382</v>
       </c>
-      <c r="B199" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A199,KT!$A:$B,2,FALSE)),"",VLOOKUP($A199,KT!$A:$B,2,FALSE))</f>
-        <v>목포 MBC</v>
+      <c r="B199" t="s">
+        <v>289</v>
       </c>
       <c r="C199">
         <v>11</v>
@@ -20112,9 +20184,8 @@
       <c r="A200">
         <v>383</v>
       </c>
-      <c r="B200" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A200,KT!$A:$B,2,FALSE)),"",VLOOKUP($A200,KT!$A:$B,2,FALSE))</f>
-        <v>부산 KBS1</v>
+      <c r="B200" t="s">
+        <v>290</v>
       </c>
       <c r="C200">
         <v>9</v>
@@ -20124,9 +20195,8 @@
       <c r="A201">
         <v>384</v>
       </c>
-      <c r="B201" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A201,KT!$A:$B,2,FALSE)),"",VLOOKUP($A201,KT!$A:$B,2,FALSE))</f>
-        <v>부산 MBC</v>
+      <c r="B201" t="s">
+        <v>291</v>
       </c>
       <c r="C201">
         <v>11</v>
@@ -20136,9 +20206,8 @@
       <c r="A202">
         <v>385</v>
       </c>
-      <c r="B202" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A202,KT!$A:$B,2,FALSE)),"",VLOOKUP($A202,KT!$A:$B,2,FALSE))</f>
-        <v>삼척 MBC</v>
+      <c r="B202" t="s">
+        <v>292</v>
       </c>
       <c r="C202">
         <v>11</v>
@@ -20148,9 +20217,8 @@
       <c r="A203">
         <v>386</v>
       </c>
-      <c r="B203" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A203,KT!$A:$B,2,FALSE)),"",VLOOKUP($A203,KT!$A:$B,2,FALSE))</f>
-        <v>순천 KBS1</v>
+      <c r="B203" t="s">
+        <v>293</v>
       </c>
       <c r="C203">
         <v>9</v>
@@ -20160,9 +20228,8 @@
       <c r="A204">
         <v>387</v>
       </c>
-      <c r="B204" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A204,KT!$A:$B,2,FALSE)),"",VLOOKUP($A204,KT!$A:$B,2,FALSE))</f>
-        <v>안동 KBS1</v>
+      <c r="B204" t="s">
+        <v>294</v>
       </c>
       <c r="C204">
         <v>9</v>
@@ -20172,9 +20239,8 @@
       <c r="A205">
         <v>388</v>
       </c>
-      <c r="B205" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A205,KT!$A:$B,2,FALSE)),"",VLOOKUP($A205,KT!$A:$B,2,FALSE))</f>
-        <v>안동 MBC</v>
+      <c r="B205" t="s">
+        <v>295</v>
       </c>
       <c r="C205">
         <v>11</v>
@@ -20184,9 +20250,8 @@
       <c r="A206">
         <v>389</v>
       </c>
-      <c r="B206" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A206,KT!$A:$B,2,FALSE)),"",VLOOKUP($A206,KT!$A:$B,2,FALSE))</f>
-        <v>여수 MBC</v>
+      <c r="B206" t="s">
+        <v>296</v>
       </c>
       <c r="C206">
         <v>11</v>
@@ -20196,9 +20261,8 @@
       <c r="A207">
         <v>390</v>
       </c>
-      <c r="B207" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A207,KT!$A:$B,2,FALSE)),"",VLOOKUP($A207,KT!$A:$B,2,FALSE))</f>
-        <v>울산 KBS1</v>
+      <c r="B207" t="s">
+        <v>297</v>
       </c>
       <c r="C207">
         <v>9</v>
@@ -20208,9 +20272,8 @@
       <c r="A208">
         <v>391</v>
       </c>
-      <c r="B208" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A208,KT!$A:$B,2,FALSE)),"",VLOOKUP($A208,KT!$A:$B,2,FALSE))</f>
-        <v>울산 MBC</v>
+      <c r="B208" t="s">
+        <v>298</v>
       </c>
       <c r="C208">
         <v>11</v>
@@ -20220,9 +20283,8 @@
       <c r="A209">
         <v>392</v>
       </c>
-      <c r="B209" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A209,KT!$A:$B,2,FALSE)),"",VLOOKUP($A209,KT!$A:$B,2,FALSE))</f>
-        <v>원주 KBS1</v>
+      <c r="B209" t="s">
+        <v>299</v>
       </c>
       <c r="C209">
         <v>9</v>
@@ -20232,9 +20294,8 @@
       <c r="A210">
         <v>393</v>
       </c>
-      <c r="B210" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A210,KT!$A:$B,2,FALSE)),"",VLOOKUP($A210,KT!$A:$B,2,FALSE))</f>
-        <v>원주 MBC</v>
+      <c r="B210" t="s">
+        <v>300</v>
       </c>
       <c r="C210">
         <v>11</v>
@@ -20244,9 +20305,8 @@
       <c r="A211">
         <v>394</v>
       </c>
-      <c r="B211" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A211,KT!$A:$B,2,FALSE)),"",VLOOKUP($A211,KT!$A:$B,2,FALSE))</f>
-        <v>전주 KBS1</v>
+      <c r="B211" t="s">
+        <v>301</v>
       </c>
       <c r="C211">
         <v>9</v>
@@ -20256,9 +20316,8 @@
       <c r="A212">
         <v>395</v>
       </c>
-      <c r="B212" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A212,KT!$A:$B,2,FALSE)),"",VLOOKUP($A212,KT!$A:$B,2,FALSE))</f>
-        <v>전주 MBC</v>
+      <c r="B212" t="s">
+        <v>302</v>
       </c>
       <c r="C212">
         <v>11</v>
@@ -20268,9 +20327,8 @@
       <c r="A213">
         <v>396</v>
       </c>
-      <c r="B213" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A213,KT!$A:$B,2,FALSE)),"",VLOOKUP($A213,KT!$A:$B,2,FALSE))</f>
-        <v>제주 KBS1</v>
+      <c r="B213" t="s">
+        <v>303</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -20280,9 +20338,8 @@
       <c r="A214">
         <v>397</v>
       </c>
-      <c r="B214" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A214,KT!$A:$B,2,FALSE)),"",VLOOKUP($A214,KT!$A:$B,2,FALSE))</f>
-        <v>제주 MBC</v>
+      <c r="B214" t="s">
+        <v>304</v>
       </c>
       <c r="C214">
         <v>11</v>
@@ -20292,9 +20349,8 @@
       <c r="A215">
         <v>398</v>
       </c>
-      <c r="B215" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A215,KT!$A:$B,2,FALSE)),"",VLOOKUP($A215,KT!$A:$B,2,FALSE))</f>
-        <v>진주 KBS1</v>
+      <c r="B215" t="s">
+        <v>305</v>
       </c>
       <c r="C215">
         <v>9</v>
@@ -20304,9 +20360,8 @@
       <c r="A216">
         <v>399</v>
       </c>
-      <c r="B216" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A216,KT!$A:$B,2,FALSE)),"",VLOOKUP($A216,KT!$A:$B,2,FALSE))</f>
-        <v>진주MBC</v>
+      <c r="B216" t="s">
+        <v>306</v>
       </c>
       <c r="C216">
         <v>11</v>
@@ -20316,9 +20371,8 @@
       <c r="A217">
         <v>400</v>
       </c>
-      <c r="B217" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A217,KT!$A:$B,2,FALSE)),"",VLOOKUP($A217,KT!$A:$B,2,FALSE))</f>
-        <v>창원 KBS1</v>
+      <c r="B217" t="s">
+        <v>307</v>
       </c>
       <c r="C217">
         <v>9</v>
@@ -20328,9 +20382,8 @@
       <c r="A218">
         <v>401</v>
       </c>
-      <c r="B218" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A218,KT!$A:$B,2,FALSE)),"",VLOOKUP($A218,KT!$A:$B,2,FALSE))</f>
-        <v>청주 KBS1</v>
+      <c r="B218" t="s">
+        <v>308</v>
       </c>
       <c r="C218">
         <v>9</v>
@@ -20340,9 +20393,8 @@
       <c r="A219">
         <v>402</v>
       </c>
-      <c r="B219" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A219,KT!$A:$B,2,FALSE)),"",VLOOKUP($A219,KT!$A:$B,2,FALSE))</f>
-        <v>청주 MBC</v>
+      <c r="B219" t="s">
+        <v>309</v>
       </c>
       <c r="C219">
         <v>11</v>
@@ -20352,9 +20404,8 @@
       <c r="A220">
         <v>403</v>
       </c>
-      <c r="B220" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A220,KT!$A:$B,2,FALSE)),"",VLOOKUP($A220,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 KBS1</v>
+      <c r="B220" t="s">
+        <v>310</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -20364,9 +20415,8 @@
       <c r="A221">
         <v>404</v>
       </c>
-      <c r="B221" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A221,KT!$A:$B,2,FALSE)),"",VLOOKUP($A221,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 MBC</v>
+      <c r="B221" t="s">
+        <v>311</v>
       </c>
       <c r="C221">
         <v>11</v>
@@ -20376,9 +20426,8 @@
       <c r="A222">
         <v>405</v>
       </c>
-      <c r="B222" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A222,KT!$A:$B,2,FALSE)),"",VLOOKUP($A222,KT!$A:$B,2,FALSE))</f>
-        <v>충주 KBS1</v>
+      <c r="B222" t="s">
+        <v>312</v>
       </c>
       <c r="C222">
         <v>9</v>
@@ -20388,9 +20437,8 @@
       <c r="A223">
         <v>406</v>
       </c>
-      <c r="B223" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A223,KT!$A:$B,2,FALSE)),"",VLOOKUP($A223,KT!$A:$B,2,FALSE))</f>
-        <v>충주 MBC</v>
+      <c r="B223" t="s">
+        <v>313</v>
       </c>
       <c r="C223">
         <v>11</v>
@@ -20400,9 +20448,8 @@
       <c r="A224">
         <v>407</v>
       </c>
-      <c r="B224" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A224,KT!$A:$B,2,FALSE)),"",VLOOKUP($A224,KT!$A:$B,2,FALSE))</f>
-        <v>포항 KBS1</v>
+      <c r="B224" t="s">
+        <v>314</v>
       </c>
       <c r="C224">
         <v>9</v>
@@ -20412,9 +20459,8 @@
       <c r="A225">
         <v>408</v>
       </c>
-      <c r="B225" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A225,KT!$A:$B,2,FALSE)),"",VLOOKUP($A225,KT!$A:$B,2,FALSE))</f>
-        <v>포항 MBC</v>
+      <c r="B225" t="s">
+        <v>315</v>
       </c>
       <c r="C225">
         <v>11</v>
@@ -20460,8 +20506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255:XFD255"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209:B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22761,9 +22807,8 @@
       <c r="A209">
         <v>362</v>
       </c>
-      <c r="B209" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A209,KT!$A:$B,2,FALSE)),"",VLOOKUP($A209,KT!$A:$B,2,FALSE))</f>
-        <v>CJB 청주방송</v>
+      <c r="B209" t="s">
+        <v>270</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -22773,9 +22818,8 @@
       <c r="A210">
         <v>363</v>
       </c>
-      <c r="B210" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A210,KT!$A:$B,2,FALSE)),"",VLOOKUP($A210,KT!$A:$B,2,FALSE))</f>
-        <v>G1 강원민방</v>
+      <c r="B210" t="s">
+        <v>271</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -22785,9 +22829,8 @@
       <c r="A211">
         <v>364</v>
       </c>
-      <c r="B211" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A211,KT!$A:$B,2,FALSE)),"",VLOOKUP($A211,KT!$A:$B,2,FALSE))</f>
-        <v>JIBS 제주방송</v>
+      <c r="B211" t="s">
+        <v>272</v>
       </c>
       <c r="C211">
         <v>5</v>
@@ -22797,9 +22840,8 @@
       <c r="A212">
         <v>365</v>
       </c>
-      <c r="B212" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A212,KT!$A:$B,2,FALSE)),"",VLOOKUP($A212,KT!$A:$B,2,FALSE))</f>
-        <v>JTV 전주방송</v>
+      <c r="B212" t="s">
+        <v>273</v>
       </c>
       <c r="C212">
         <v>5</v>
@@ -22809,9 +22851,8 @@
       <c r="A213">
         <v>366</v>
       </c>
-      <c r="B213" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A213,KT!$A:$B,2,FALSE)),"",VLOOKUP($A213,KT!$A:$B,2,FALSE))</f>
-        <v>KBC 광주방송</v>
+      <c r="B213" t="s">
+        <v>274</v>
       </c>
       <c r="C213">
         <v>5</v>
@@ -22821,9 +22862,8 @@
       <c r="A214">
         <v>367</v>
       </c>
-      <c r="B214" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A214,KT!$A:$B,2,FALSE)),"",VLOOKUP($A214,KT!$A:$B,2,FALSE))</f>
-        <v>KNN 부산경남방송</v>
+      <c r="B214" t="s">
+        <v>275</v>
       </c>
       <c r="C214">
         <v>5</v>
@@ -22833,9 +22873,8 @@
       <c r="A215">
         <v>369</v>
       </c>
-      <c r="B215" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A215,KT!$A:$B,2,FALSE)),"",VLOOKUP($A215,KT!$A:$B,2,FALSE))</f>
-        <v>TBC 대구방송</v>
+      <c r="B215" t="s">
+        <v>276</v>
       </c>
       <c r="C215">
         <v>5</v>
@@ -22845,9 +22884,8 @@
       <c r="A216">
         <v>370</v>
       </c>
-      <c r="B216" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A216,KT!$A:$B,2,FALSE)),"",VLOOKUP($A216,KT!$A:$B,2,FALSE))</f>
-        <v>TJB 대전방송</v>
+      <c r="B216" t="s">
+        <v>277</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -22857,9 +22895,8 @@
       <c r="A217">
         <v>371</v>
       </c>
-      <c r="B217" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A217,KT!$A:$B,2,FALSE)),"",VLOOKUP($A217,KT!$A:$B,2,FALSE))</f>
-        <v>UBC 울산방송</v>
+      <c r="B217" t="s">
+        <v>278</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -22869,9 +22906,8 @@
       <c r="A218">
         <v>372</v>
       </c>
-      <c r="B218" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A218,KT!$A:$B,2,FALSE)),"",VLOOKUP($A218,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 KBS1</v>
+      <c r="B218" t="s">
+        <v>279</v>
       </c>
       <c r="C218">
         <v>9</v>
@@ -22881,9 +22917,8 @@
       <c r="A219">
         <v>373</v>
       </c>
-      <c r="B219" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A219,KT!$A:$B,2,FALSE)),"",VLOOKUP($A219,KT!$A:$B,2,FALSE))</f>
-        <v>강릉 MBC</v>
+      <c r="B219" t="s">
+        <v>280</v>
       </c>
       <c r="C219">
         <v>11</v>
@@ -22893,9 +22928,8 @@
       <c r="A220">
         <v>374</v>
       </c>
-      <c r="B220" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A220,KT!$A:$B,2,FALSE)),"",VLOOKUP($A220,KT!$A:$B,2,FALSE))</f>
-        <v>경인 KBS1</v>
+      <c r="B220" t="s">
+        <v>281</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -22905,9 +22939,8 @@
       <c r="A221">
         <v>375</v>
       </c>
-      <c r="B221" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A221,KT!$A:$B,2,FALSE)),"",VLOOKUP($A221,KT!$A:$B,2,FALSE))</f>
-        <v>광주 KBS1</v>
+      <c r="B221" t="s">
+        <v>282</v>
       </c>
       <c r="C221">
         <v>9</v>
@@ -22917,9 +22950,8 @@
       <c r="A222">
         <v>376</v>
       </c>
-      <c r="B222" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A222,KT!$A:$B,2,FALSE)),"",VLOOKUP($A222,KT!$A:$B,2,FALSE))</f>
-        <v>광주 MBC</v>
+      <c r="B222" t="s">
+        <v>283</v>
       </c>
       <c r="C222">
         <v>11</v>
@@ -22929,9 +22961,8 @@
       <c r="A223">
         <v>377</v>
       </c>
-      <c r="B223" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A223,KT!$A:$B,2,FALSE)),"",VLOOKUP($A223,KT!$A:$B,2,FALSE))</f>
-        <v>대구 KBS1</v>
+      <c r="B223" t="s">
+        <v>284</v>
       </c>
       <c r="C223">
         <v>9</v>
@@ -22941,9 +22972,8 @@
       <c r="A224">
         <v>378</v>
       </c>
-      <c r="B224" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A224,KT!$A:$B,2,FALSE)),"",VLOOKUP($A224,KT!$A:$B,2,FALSE))</f>
-        <v>대구 MBC</v>
+      <c r="B224" t="s">
+        <v>285</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -22953,9 +22983,8 @@
       <c r="A225">
         <v>379</v>
       </c>
-      <c r="B225" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A225,KT!$A:$B,2,FALSE)),"",VLOOKUP($A225,KT!$A:$B,2,FALSE))</f>
-        <v>대전 KBS1</v>
+      <c r="B225" t="s">
+        <v>286</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -22965,9 +22994,8 @@
       <c r="A226">
         <v>380</v>
       </c>
-      <c r="B226" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A226,KT!$A:$B,2,FALSE)),"",VLOOKUP($A226,KT!$A:$B,2,FALSE))</f>
-        <v>대전 MBC</v>
+      <c r="B226" t="s">
+        <v>287</v>
       </c>
       <c r="C226">
         <v>11</v>
@@ -22977,9 +23005,8 @@
       <c r="A227">
         <v>381</v>
       </c>
-      <c r="B227" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A227,KT!$A:$B,2,FALSE)),"",VLOOKUP($A227,KT!$A:$B,2,FALSE))</f>
-        <v>목포 KBS1</v>
+      <c r="B227" t="s">
+        <v>288</v>
       </c>
       <c r="C227">
         <v>9</v>
@@ -22989,9 +23016,8 @@
       <c r="A228">
         <v>382</v>
       </c>
-      <c r="B228" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A228,KT!$A:$B,2,FALSE)),"",VLOOKUP($A228,KT!$A:$B,2,FALSE))</f>
-        <v>목포 MBC</v>
+      <c r="B228" t="s">
+        <v>289</v>
       </c>
       <c r="C228">
         <v>11</v>
@@ -23001,9 +23027,8 @@
       <c r="A229">
         <v>383</v>
       </c>
-      <c r="B229" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A229,KT!$A:$B,2,FALSE)),"",VLOOKUP($A229,KT!$A:$B,2,FALSE))</f>
-        <v>부산 KBS1</v>
+      <c r="B229" t="s">
+        <v>290</v>
       </c>
       <c r="C229">
         <v>9</v>
@@ -23013,9 +23038,8 @@
       <c r="A230">
         <v>384</v>
       </c>
-      <c r="B230" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A230,KT!$A:$B,2,FALSE)),"",VLOOKUP($A230,KT!$A:$B,2,FALSE))</f>
-        <v>부산 MBC</v>
+      <c r="B230" t="s">
+        <v>291</v>
       </c>
       <c r="C230">
         <v>11</v>
@@ -23025,9 +23049,8 @@
       <c r="A231">
         <v>385</v>
       </c>
-      <c r="B231" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A231,KT!$A:$B,2,FALSE)),"",VLOOKUP($A231,KT!$A:$B,2,FALSE))</f>
-        <v>삼척 MBC</v>
+      <c r="B231" t="s">
+        <v>292</v>
       </c>
       <c r="C231">
         <v>11</v>
@@ -23037,9 +23060,8 @@
       <c r="A232">
         <v>386</v>
       </c>
-      <c r="B232" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A232,KT!$A:$B,2,FALSE)),"",VLOOKUP($A232,KT!$A:$B,2,FALSE))</f>
-        <v>순천 KBS1</v>
+      <c r="B232" t="s">
+        <v>293</v>
       </c>
       <c r="C232">
         <v>9</v>
@@ -23049,9 +23071,8 @@
       <c r="A233">
         <v>387</v>
       </c>
-      <c r="B233" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A233,KT!$A:$B,2,FALSE)),"",VLOOKUP($A233,KT!$A:$B,2,FALSE))</f>
-        <v>안동 KBS1</v>
+      <c r="B233" t="s">
+        <v>294</v>
       </c>
       <c r="C233">
         <v>9</v>
@@ -23061,9 +23082,8 @@
       <c r="A234">
         <v>388</v>
       </c>
-      <c r="B234" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A234,KT!$A:$B,2,FALSE)),"",VLOOKUP($A234,KT!$A:$B,2,FALSE))</f>
-        <v>안동 MBC</v>
+      <c r="B234" t="s">
+        <v>295</v>
       </c>
       <c r="C234">
         <v>11</v>
@@ -23073,9 +23093,8 @@
       <c r="A235">
         <v>389</v>
       </c>
-      <c r="B235" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A235,KT!$A:$B,2,FALSE)),"",VLOOKUP($A235,KT!$A:$B,2,FALSE))</f>
-        <v>여수 MBC</v>
+      <c r="B235" t="s">
+        <v>296</v>
       </c>
       <c r="C235">
         <v>11</v>
@@ -23085,9 +23104,8 @@
       <c r="A236">
         <v>390</v>
       </c>
-      <c r="B236" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A236,KT!$A:$B,2,FALSE)),"",VLOOKUP($A236,KT!$A:$B,2,FALSE))</f>
-        <v>울산 KBS1</v>
+      <c r="B236" t="s">
+        <v>297</v>
       </c>
       <c r="C236">
         <v>9</v>
@@ -23097,9 +23115,8 @@
       <c r="A237">
         <v>391</v>
       </c>
-      <c r="B237" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A237,KT!$A:$B,2,FALSE)),"",VLOOKUP($A237,KT!$A:$B,2,FALSE))</f>
-        <v>울산 MBC</v>
+      <c r="B237" t="s">
+        <v>298</v>
       </c>
       <c r="C237">
         <v>11</v>
@@ -23109,9 +23126,8 @@
       <c r="A238">
         <v>392</v>
       </c>
-      <c r="B238" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A238,KT!$A:$B,2,FALSE)),"",VLOOKUP($A238,KT!$A:$B,2,FALSE))</f>
-        <v>원주 KBS1</v>
+      <c r="B238" t="s">
+        <v>299</v>
       </c>
       <c r="C238">
         <v>9</v>
@@ -23121,9 +23137,8 @@
       <c r="A239">
         <v>393</v>
       </c>
-      <c r="B239" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A239,KT!$A:$B,2,FALSE)),"",VLOOKUP($A239,KT!$A:$B,2,FALSE))</f>
-        <v>원주 MBC</v>
+      <c r="B239" t="s">
+        <v>300</v>
       </c>
       <c r="C239">
         <v>11</v>
@@ -23133,9 +23148,8 @@
       <c r="A240">
         <v>394</v>
       </c>
-      <c r="B240" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A240,KT!$A:$B,2,FALSE)),"",VLOOKUP($A240,KT!$A:$B,2,FALSE))</f>
-        <v>전주 KBS1</v>
+      <c r="B240" t="s">
+        <v>301</v>
       </c>
       <c r="C240">
         <v>9</v>
@@ -23145,9 +23159,8 @@
       <c r="A241">
         <v>395</v>
       </c>
-      <c r="B241" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A241,KT!$A:$B,2,FALSE)),"",VLOOKUP($A241,KT!$A:$B,2,FALSE))</f>
-        <v>전주 MBC</v>
+      <c r="B241" t="s">
+        <v>302</v>
       </c>
       <c r="C241">
         <v>11</v>
@@ -23157,9 +23170,8 @@
       <c r="A242">
         <v>396</v>
       </c>
-      <c r="B242" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A242,KT!$A:$B,2,FALSE)),"",VLOOKUP($A242,KT!$A:$B,2,FALSE))</f>
-        <v>제주 KBS1</v>
+      <c r="B242" t="s">
+        <v>303</v>
       </c>
       <c r="C242">
         <v>9</v>
@@ -23169,9 +23181,8 @@
       <c r="A243">
         <v>397</v>
       </c>
-      <c r="B243" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A243,KT!$A:$B,2,FALSE)),"",VLOOKUP($A243,KT!$A:$B,2,FALSE))</f>
-        <v>제주 MBC</v>
+      <c r="B243" t="s">
+        <v>304</v>
       </c>
       <c r="C243">
         <v>11</v>
@@ -23181,9 +23192,8 @@
       <c r="A244">
         <v>398</v>
       </c>
-      <c r="B244" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A244,KT!$A:$B,2,FALSE)),"",VLOOKUP($A244,KT!$A:$B,2,FALSE))</f>
-        <v>진주 KBS1</v>
+      <c r="B244" t="s">
+        <v>305</v>
       </c>
       <c r="C244">
         <v>9</v>
@@ -23193,9 +23203,8 @@
       <c r="A245">
         <v>399</v>
       </c>
-      <c r="B245" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A245,KT!$A:$B,2,FALSE)),"",VLOOKUP($A245,KT!$A:$B,2,FALSE))</f>
-        <v>진주MBC</v>
+      <c r="B245" t="s">
+        <v>306</v>
       </c>
       <c r="C245">
         <v>11</v>
@@ -23205,9 +23214,8 @@
       <c r="A246">
         <v>400</v>
       </c>
-      <c r="B246" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A246,KT!$A:$B,2,FALSE)),"",VLOOKUP($A246,KT!$A:$B,2,FALSE))</f>
-        <v>창원 KBS1</v>
+      <c r="B246" t="s">
+        <v>307</v>
       </c>
       <c r="C246">
         <v>9</v>
@@ -23217,9 +23225,8 @@
       <c r="A247">
         <v>401</v>
       </c>
-      <c r="B247" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A247,KT!$A:$B,2,FALSE)),"",VLOOKUP($A247,KT!$A:$B,2,FALSE))</f>
-        <v>청주 KBS1</v>
+      <c r="B247" t="s">
+        <v>308</v>
       </c>
       <c r="C247">
         <v>9</v>
@@ -23229,9 +23236,8 @@
       <c r="A248">
         <v>402</v>
       </c>
-      <c r="B248" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A248,KT!$A:$B,2,FALSE)),"",VLOOKUP($A248,KT!$A:$B,2,FALSE))</f>
-        <v>청주 MBC</v>
+      <c r="B248" t="s">
+        <v>309</v>
       </c>
       <c r="C248">
         <v>11</v>
@@ -23241,9 +23247,8 @@
       <c r="A249">
         <v>403</v>
       </c>
-      <c r="B249" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A249,KT!$A:$B,2,FALSE)),"",VLOOKUP($A249,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 KBS1</v>
+      <c r="B249" t="s">
+        <v>310</v>
       </c>
       <c r="C249">
         <v>9</v>
@@ -23253,9 +23258,8 @@
       <c r="A250">
         <v>404</v>
       </c>
-      <c r="B250" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A250,KT!$A:$B,2,FALSE)),"",VLOOKUP($A250,KT!$A:$B,2,FALSE))</f>
-        <v>춘천 MBC</v>
+      <c r="B250" t="s">
+        <v>311</v>
       </c>
       <c r="C250">
         <v>11</v>
@@ -23265,9 +23269,8 @@
       <c r="A251">
         <v>405</v>
       </c>
-      <c r="B251" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A251,KT!$A:$B,2,FALSE)),"",VLOOKUP($A251,KT!$A:$B,2,FALSE))</f>
-        <v>충주 KBS1</v>
+      <c r="B251" t="s">
+        <v>312</v>
       </c>
       <c r="C251">
         <v>9</v>
@@ -23277,9 +23280,8 @@
       <c r="A252">
         <v>406</v>
       </c>
-      <c r="B252" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A252,KT!$A:$B,2,FALSE)),"",VLOOKUP($A252,KT!$A:$B,2,FALSE))</f>
-        <v>충주 MBC</v>
+      <c r="B252" t="s">
+        <v>313</v>
       </c>
       <c r="C252">
         <v>11</v>
@@ -23289,9 +23291,8 @@
       <c r="A253">
         <v>407</v>
       </c>
-      <c r="B253" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A253,KT!$A:$B,2,FALSE)),"",VLOOKUP($A253,KT!$A:$B,2,FALSE))</f>
-        <v>포항 KBS1</v>
+      <c r="B253" t="s">
+        <v>314</v>
       </c>
       <c r="C253">
         <v>9</v>
@@ -23301,9 +23302,8 @@
       <c r="A254">
         <v>408</v>
       </c>
-      <c r="B254" t="str">
-        <f ca="1">IF(ISNA(VLOOKUP($A254,KT!$A:$B,2,FALSE)),"",VLOOKUP($A254,KT!$A:$B,2,FALSE))</f>
-        <v>포항 MBC</v>
+      <c r="B254" t="s">
+        <v>315</v>
       </c>
       <c r="C254">
         <v>11</v>
